--- a/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
+++ b/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\AntirShadow\Downloads\WebGL\ProyectoRedes\Ventas\Propuesta Económica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AntirShadow\Documents\GitHub\ProyectoRedes\Ventas\Propuesta Económica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FECCA76-73B8-4B14-B18E-9F4BA64B4DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA2F9B9-CDC6-4155-95B9-17E1E2D81B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>PROPUESTA ECONÓMICA</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t>https://articulo.mercadolibre.com.mx/MLM-1300594446-100-piezas-cable-cat6-rj45-conectores-cat6-cat5e-rj45utp-_JM#position=5&amp;search_layout=grid&amp;type=item&amp;tracking_id=d26aa09f-a4f7-44a7-b455-ec3998c093b6</t>
+  </si>
+  <si>
+    <t>Viaje Guadalaja VivaAerobus</t>
+  </si>
+  <si>
+    <t>Viaje Veracruz</t>
+  </si>
+  <si>
+    <t>Viaje Monterrey</t>
+  </si>
+  <si>
+    <t>Viaje Querétaro</t>
+  </si>
+  <si>
+    <t>Viáticos diarios P/Persona</t>
   </si>
 </sst>
 </file>
@@ -91,9 +106,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -172,14 +187,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,7 +273,7 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -282,7 +289,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -291,7 +298,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -306,14 +313,14 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -442,8 +449,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:F7" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A2:F7" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:F14" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A2:F14" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F6F1872D-62D6-465A-9EB6-D1E64C7FD1EA}" name="N ITEM" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{05A4D583-BEEA-420F-8DC9-DB385506B921}" name="DESCRIPCIÓN" dataDxfId="4"/>
@@ -657,33 +664,33 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -703,7 +710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -717,14 +724,14 @@
         <v>8969</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E7" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E8" si="0">C3*D3</f>
         <v>134535</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -745,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -764,7 +771,7 @@
       </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -785,7 +792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -806,31 +813,134 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8">
+        <f>1323+178.67+1125</f>
+        <v>2626.67</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>5253.34</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="13">
-        <f>SUM(E3:E7)</f>
-        <v>292187.40000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D11" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="2"/>
+      <c r="B18" s="15">
+        <f>SUM(E3:E14)</f>
+        <v>297440.74000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
+++ b/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AntirShadow\Documents\GitHub\ProyectoRedes\Ventas\Propuesta Económica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA2F9B9-CDC6-4155-95B9-17E1E2D81B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A290E-627C-4DF1-A81E-A50915562009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>PROPUESTA ECONÓMICA</t>
   </si>
@@ -86,29 +86,39 @@
     <t>https://articulo.mercadolibre.com.mx/MLM-1300594446-100-piezas-cable-cat6-rj45-conectores-cat6-cat5e-rj45utp-_JM#position=5&amp;search_layout=grid&amp;type=item&amp;tracking_id=d26aa09f-a4f7-44a7-b455-ec3998c093b6</t>
   </si>
   <si>
-    <t>Viaje Guadalaja VivaAerobus</t>
-  </si>
-  <si>
-    <t>Viaje Veracruz</t>
-  </si>
-  <si>
-    <t>Viaje Monterrey</t>
-  </si>
-  <si>
-    <t>Viaje Querétaro</t>
-  </si>
-  <si>
     <t>Viáticos diarios P/Persona</t>
+  </si>
+  <si>
+    <t>DESCUENTOS</t>
+  </si>
+  <si>
+    <t>https://paquetes.cityexpress.com/reservar/detalle-reservacion-paquetes</t>
+  </si>
+  <si>
+    <t>Veracruz Vuelo y Hospedaje Con Desayuno 2 Personas</t>
+  </si>
+  <si>
+    <t>Guadalajara Vuelo y Hospedaje Con Desayuno 2 Personas</t>
+  </si>
+  <si>
+    <t>Querétaro Vuelo y Hospedaje Con Desayuno 2 Personas</t>
+  </si>
+  <si>
+    <t>Monterrey Vuelo y Hospedaje Con Desayuno 2 Personas</t>
+  </si>
+  <si>
+    <t>Camioneta transporte objetos y movilidad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -190,6 +200,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -270,14 +287,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -289,16 +307,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -313,24 +325,74 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
     <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -449,15 +511,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:F14" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A2:F14" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F6F1872D-62D6-465A-9EB6-D1E64C7FD1EA}" name="N ITEM" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{05A4D583-BEEA-420F-8DC9-DB385506B921}" name="DESCRIPCIÓN" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{16119888-3FB2-48ED-BB90-CB4798528804}" name="NO. DE PARTE" dataDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{17DCB875-5E51-4C91-B16E-78560646B0A5}" name="PRECIO UNITARIO" dataDxfId="2" dataCellStyle="Moneda"/>
-    <tableColumn id="5" xr3:uid="{DAECB143-E7A2-4C29-91CB-3EBCE0FFA4CA}" name="SUBTOTAL" dataDxfId="1" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{CDC3B595-CE04-4E68-9C64-2BFC0D49CE76}" name="LINK" dataDxfId="0" dataCellStyle="Hipervínculo"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:H14" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A2:H14" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F6F1872D-62D6-465A-9EB6-D1E64C7FD1EA}" name="N ITEM" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{05A4D583-BEEA-420F-8DC9-DB385506B921}" name="DESCRIPCIÓN" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{16119888-3FB2-48ED-BB90-CB4798528804}" name="NO. DE PARTE" dataDxfId="4" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{17DCB875-5E51-4C91-B16E-78560646B0A5}" name="PRECIO UNITARIO" dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{9504F072-2CE8-4154-ADE6-5071E962149C}" name="DESCUENTOS"/>
+    <tableColumn id="5" xr3:uid="{DAECB143-E7A2-4C29-91CB-3EBCE0FFA4CA}" name="SUBTOTAL" dataDxfId="2" dataCellStyle="Moneda"/>
+    <tableColumn id="10" xr3:uid="{B913AF07-4667-4467-8BAC-58B0321E83ED}" name="TOTAL" dataDxfId="0" dataCellStyle="Moneda">
+      <calculatedColumnFormula>(C3*D3)*(100/100)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{CDC3B595-CE04-4E68-9C64-2BFC0D49CE76}" name="LINK" dataDxfId="1" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -664,33 +730,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -703,258 +773,385 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>15</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="16">
         <v>8969</v>
       </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E8" si="0">C3*D3</f>
+      <c r="E3" s="20">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14">
+        <f>C3*D3</f>
         <v>134535</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="18">
+        <f t="shared" ref="G3:G11" si="0">(C3*D3)*(100/100)</f>
+        <v>134535</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="16">
         <v>11310</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="20">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14">
+        <f>C4*D4</f>
+        <v>56550</v>
+      </c>
+      <c r="G4" s="18">
         <f t="shared" si="0"/>
         <v>56550</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="14">
         <v>30000</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <f>C5*D5</f>
+        <v>90000</v>
+      </c>
+      <c r="G5" s="18">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="14">
         <v>1149</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="20">
+        <v>10</v>
+      </c>
+      <c r="F6" s="14">
+        <f>C6*D6</f>
+        <v>10341</v>
+      </c>
+      <c r="G6" s="18">
         <f t="shared" si="0"/>
         <v>10341</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="14">
         <v>152.28</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" ref="F7:F12" si="1">C7*D7</f>
+        <v>761.4</v>
+      </c>
+      <c r="G7" s="18">
         <f t="shared" si="0"/>
         <v>761.4</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7">
+        <v>120</v>
+      </c>
+      <c r="D8" s="14">
+        <v>500</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>15</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2034.933</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="1"/>
+        <v>30523.994999999999</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" si="0"/>
+        <v>30523.994999999999</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
-        <f>1323+178.67+1125</f>
-        <v>2626.67</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="17">
+        <v>15</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1939.4</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="1"/>
+        <v>29091</v>
+      </c>
+      <c r="G10" s="18">
         <f t="shared" si="0"/>
-        <v>5253.34</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+        <v>29091</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="17">
+        <v>15</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1945.93</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="1"/>
+        <v>29188.95</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" si="0"/>
+        <v>29188.95</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="17">
+        <v>15</v>
+      </c>
+      <c r="D12" s="15">
+        <v>2141.3330000000001</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>32119.995000000003</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" ref="G10:G12" si="2">(C12*D12)*(100/100)</f>
+        <v>32119.995000000003</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    </row>
+    <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="B13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="17">
+        <v>4</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="22">
+        <f t="shared" ref="G13:G14" si="3">(C13*D13)*(100/100)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9">
-        <v>8</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="15">
-        <f>SUM(E3:E14)</f>
-        <v>297440.74000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="2"/>
+      <c r="B17" s="11">
+        <f>SUM(G3:G14)</f>
+        <v>473111.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{2421FD61-C521-45B2-8DF5-B7B485BF9E38}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{D9DB3FEB-3A05-490A-A601-E4659876CB25}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{D18119C8-5FA6-4F43-8CD8-2A77CC41275D}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{2421FD61-C521-45B2-8DF5-B7B485BF9E38}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{D9DB3FEB-3A05-490A-A601-E4659876CB25}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{D18119C8-5FA6-4F43-8CD8-2A77CC41275D}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{9BE40A90-D202-4C44-8466-BCB4BDBFE904}"/>
+    <hyperlink ref="H12" r:id="rId5" xr:uid="{A7BF6B39-7EEC-4D0C-A1BF-9776AEF5C3D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
+++ b/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AntirShadow\Documents\GitHub\ProyectoRedes\Ventas\Propuesta Económica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\AntirShadow\Documents\GitHub\ProyectoRedes\Ventas\Propuesta Económica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A290E-627C-4DF1-A81E-A50915562009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA36B24-2EF2-4609-A043-47B40D1E5EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>PROPUESTA ECONÓMICA</t>
   </si>
@@ -107,7 +107,137 @@
     <t>Monterrey Vuelo y Hospedaje Con Desayuno 2 Personas</t>
   </si>
   <si>
-    <t>Camioneta transporte objetos y movilidad</t>
+    <t>https://www.priceline.com/rentalcars/Mexico%20City%20Mexico/Mexico%20City%20Mexico/20230516-10%3A00/20230530-10%3A00/list?detailsKey=MEXC001~MEXC001~R~N~~18822ce833f~~refCode-22-a769e839-1bbd-4f9f-b851-b7d56fef1fd1~20230516T10%3A00~20230530T10%3A00~AV~FQMR~USD~1068.52~~~~~878.00~1187.55~~*&amp;preferredPartnerCode=AV&amp;refid=PLKAYAK&amp;refclickid=CSR_RC%7CAvis%20Rent%20a%20Car%7C*Q**%7CMEXC001%7CMEXC001%7CPL%7C000%7C14%7Ctrue%7CRT%7CKC%3AsZFr71f8tJ8qTJz_MDLToA&amp;utm_medium=SHOP_PPC&amp;utm_source=PLKAYAK&amp;utm_term=CSR_RC%7CAvis%20Rent%20a%20Car%7C*Q**%7CMEXC001%7CMEXC001%7CPL%7C000%7C14%7Ctrue%7CRT%7CKC%3AsZFr71f8tJ8qTJz_MDLToA&amp;utm_content=CMP2&amp;utm_campaign=Car_Contract&amp;currencycode=USD&amp;carclass=FQMR&amp;dct=&amp;locale=&amp;pos=US&amp;currencyCode=USD&amp;slingshot=1774</t>
+  </si>
+  <si>
+    <t>Gasolina Monterrey ida y vuelta</t>
+  </si>
+  <si>
+    <t>Gasolina Guadalajara ida y vuelta</t>
+  </si>
+  <si>
+    <t>Gasolina Querétaro ida y vuelta</t>
+  </si>
+  <si>
+    <t>Gasolina Veracruz ida y vuelta</t>
+  </si>
+  <si>
+    <t>Gastos movilidad</t>
+  </si>
+  <si>
+    <t>https://www.distancial.com/Map/Ciudad%20de%20mexico/Queretaro</t>
+  </si>
+  <si>
+    <t>https://www.distancial.com/Map/Ciudad%20de%20mexico/Veracruz</t>
+  </si>
+  <si>
+    <t>https://www.distancial.com/Map/Ciudad%20de%20mexico/Jalisco</t>
+  </si>
+  <si>
+    <t>https://www.distancial.com/distancia-de-cdmx-a-monterrey</t>
+  </si>
+  <si>
+    <t>Pago chofer 15 días</t>
+  </si>
+  <si>
+    <t>Porcentaje de error</t>
+  </si>
+  <si>
+    <t>Camioneta transporte Accesorios y Movilidad</t>
+  </si>
+  <si>
+    <t>Porcentaje Ganancia</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>Ganacia</t>
+  </si>
+  <si>
+    <t>Ganancia Bruta Por Persona</t>
+  </si>
+  <si>
+    <t>Dolares</t>
+  </si>
+  <si>
+    <t>Tipo de cambio</t>
+  </si>
+  <si>
+    <t>Pesos</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Vigencia</t>
+  </si>
+  <si>
+    <t>2 semanas</t>
+  </si>
+  <si>
+    <t>Dólares</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Total USD</t>
+  </si>
+  <si>
+    <t>Pago inicial: 25%</t>
+  </si>
+  <si>
+    <t>Diseño de red: 30%</t>
+  </si>
+  <si>
+    <t>Mantenimiento Preventivo</t>
+  </si>
+  <si>
+    <t>Compra e instalación de equipos de red: 40%</t>
+  </si>
+  <si>
+    <t>Monitoreo 1: 2.5%</t>
+  </si>
+  <si>
+    <t>Monitoreo 2: 2.5%</t>
+  </si>
+  <si>
+    <t>Total Proyecto Peso y Dolar</t>
+  </si>
+  <si>
+    <t>Porcentajes</t>
+  </si>
+  <si>
+    <t>Ganancia por Persona</t>
+  </si>
+  <si>
+    <t>Ganancias del Proyecto</t>
+  </si>
+  <si>
+    <t>Pagos Desglozados</t>
+  </si>
+  <si>
+    <t>Descripción Planes de Pago</t>
+  </si>
+  <si>
+    <t>Pago inicial: 25% del costo total del proyecto ($33,189.54 USD) al momento de firmar el contrato.
+Diseño de red: 30% del costo total del proyecto ($39,827.443 USD) al completar el diseño de red y entregarlo al cliente para su aprobación.
+Compra e instalación de equipos de red: 40% del costo total del proyecto ($53,103.26 USD) al completar la compra e instalación de los equipos de red en los 5 diferentes centros de la república.
+Monitoreo preventivo: 2.5% del costo total del proyecto ($3,318.95 USD) al completar el primer monitoreo preventivo, medio año después de la instalación de los equipos de red.
+Pago final: 2.5% del costo total del proyecto ($3,318.95) al completar el segundo monitoreo preventivo, 1 año después de la instalación de los equipos de red.</t>
+  </si>
+  <si>
+    <t>Medios De Pago</t>
+  </si>
+  <si>
+    <t>Tarjeta de débito</t>
+  </si>
+  <si>
+    <t>Tarjeta de Crédito</t>
+  </si>
+  <si>
+    <t>Pago total: 100% del pago al momento de firmar contrato (Se aplica 5% de descuento al total del proyecto. De $53,103.26 USD a $50,448.10 USD).</t>
   </si>
 </sst>
 </file>
@@ -115,14 +245,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,7 +346,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +375,32 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -286,86 +447,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
+    <cellStyle name="20% - Énfasis1" xfId="6" builtinId="30"/>
+    <cellStyle name="40% - Énfasis6" xfId="7" builtinId="51"/>
     <cellStyle name="Bueno" xfId="3" builtinId="26"/>
     <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -373,7 +638,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <font>
         <b val="0"/>
@@ -390,7 +655,26 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -412,6 +696,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -511,19 +796,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:H14" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A2:H14" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{F6F1872D-62D6-465A-9EB6-D1E64C7FD1EA}" name="N ITEM" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{05A4D583-BEEA-420F-8DC9-DB385506B921}" name="DESCRIPCIÓN" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{16119888-3FB2-48ED-BB90-CB4798528804}" name="NO. DE PARTE" dataDxfId="4" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{17DCB875-5E51-4C91-B16E-78560646B0A5}" name="PRECIO UNITARIO" dataDxfId="3" dataCellStyle="Moneda"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:I20" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A2:I20" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{F6F1872D-62D6-465A-9EB6-D1E64C7FD1EA}" name="N ITEM" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{05A4D583-BEEA-420F-8DC9-DB385506B921}" name="DESCRIPCIÓN" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{16119888-3FB2-48ED-BB90-CB4798528804}" name="NO. DE PARTE" dataDxfId="5" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{17DCB875-5E51-4C91-B16E-78560646B0A5}" name="PRECIO UNITARIO" dataDxfId="4" dataCellStyle="Moneda"/>
     <tableColumn id="8" xr3:uid="{9504F072-2CE8-4154-ADE6-5071E962149C}" name="DESCUENTOS"/>
-    <tableColumn id="5" xr3:uid="{DAECB143-E7A2-4C29-91CB-3EBCE0FFA4CA}" name="SUBTOTAL" dataDxfId="2" dataCellStyle="Moneda"/>
-    <tableColumn id="10" xr3:uid="{B913AF07-4667-4467-8BAC-58B0321E83ED}" name="TOTAL" dataDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="5" xr3:uid="{DAECB143-E7A2-4C29-91CB-3EBCE0FFA4CA}" name="SUBTOTAL" dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="10" xr3:uid="{B913AF07-4667-4467-8BAC-58B0321E83ED}" name="TOTAL" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>(C3*D3)*(100/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CDC3B595-CE04-4E68-9C64-2BFC0D49CE76}" name="LINK" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="9" xr3:uid="{1ADA9541-18CA-4B01-BDAC-D6008F0FAA29}" name="Dolares" dataDxfId="0" dataCellStyle="Moneda">
+      <calculatedColumnFormula>G3/$F23</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{CDC3B595-CE04-4E68-9C64-2BFC0D49CE76}" name="LINK" dataDxfId="2" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -730,37 +1018,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -773,20 +1063,23 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -796,25 +1089,29 @@
       <c r="C3" s="7">
         <v>15</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="13">
         <v>8969</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="17">
         <v>15</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="11">
         <f>C3*D3</f>
         <v>134535</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="12">
         <f t="shared" ref="G3:G11" si="0">(C3*D3)*(100/100)</f>
         <v>134535</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="12">
+        <f>G3/F23</f>
+        <v>7705.3264604810993</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -824,25 +1121,29 @@
       <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="13">
         <v>11310</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>5</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <f>C4*D4</f>
         <v>56550</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="12">
         <f t="shared" si="0"/>
         <v>56550</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="12">
+        <f>G4/F23</f>
+        <v>3238.8316151202748</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -852,23 +1153,27 @@
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>30000</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>0</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="11">
         <f>C5*D5</f>
         <v>90000</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H5" s="12">
+        <f>G5/F23</f>
+        <v>5154.6391752577319</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -878,25 +1183,29 @@
       <c r="C6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>1149</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <v>10</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <f>C6*D6</f>
         <v>10341</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
         <v>10341</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="12">
+        <f>G6/F23</f>
+        <v>592.26804123711338</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -906,25 +1215,29 @@
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>152.28</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <v>0</v>
       </c>
-      <c r="F7" s="14">
-        <f t="shared" ref="F7:F12" si="1">C7*D7</f>
+      <c r="F7" s="11">
+        <f t="shared" ref="F7:F20" si="1">C7*D7</f>
         <v>761.4</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
         <v>761.4</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="12">
+        <f>G7/F23</f>
+        <v>43.608247422680407</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -934,23 +1247,27 @@
       <c r="C8" s="7">
         <v>120</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="11">
         <v>500</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <v>0</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="H8" s="12">
+        <f>G8/F23</f>
+        <v>3436.4261168384878</v>
+      </c>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -960,198 +1277,844 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>2034.933</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>0</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <f t="shared" si="1"/>
         <v>30523.994999999999</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>30523.994999999999</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="12">
+        <f>G9/F23</f>
+        <v>1748.2242268041236</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>15</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>1939.4</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>0</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>29091</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>29091</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="12">
+        <f>G10/F23</f>
+        <v>1666.1512027491408</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>15</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>1945.93</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>0</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
         <v>29188.95</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>29188.95</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="12">
+        <f>G11/F23</f>
+        <v>1671.7611683848797</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>15</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>2141.3330000000001</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="18">
         <v>0</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>32119.995000000003</v>
       </c>
-      <c r="G12" s="18">
-        <f t="shared" ref="G10:G12" si="2">(C12*D12)*(100/100)</f>
+      <c r="G12" s="12">
+        <f t="shared" ref="G12" si="2">(C12*D12)*(100/100)</f>
         <v>32119.995000000003</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="12">
+        <f>G12/F23</f>
+        <v>1839.6331615120275</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="14">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12">
+        <v>21834.65</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>87338.6</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" ref="G13:G18" si="3">(C13*D13)*(100/100)</f>
+        <v>87338.6</v>
+      </c>
+      <c r="H13" s="12">
+        <f>G13/F23</f>
+        <v>5002.2107674684994</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17">
-        <v>4</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="22">
-        <f t="shared" ref="G13:G14" si="3">(C13*D13)*(100/100)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="22">
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <f>1312.51*2</f>
+        <v>2625.02</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
+        <v>2625.02</v>
+      </c>
+      <c r="G14" s="11">
+        <f>(C14*D14)*(100/100)</f>
+        <v>2625.02</v>
+      </c>
+      <c r="H14" s="12">
+        <f>G14/F23</f>
+        <v>150.34478808705612</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
+        <f>2*826.18</f>
+        <v>1652.36</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="1"/>
+        <v>1652.36</v>
+      </c>
+      <c r="G15" s="11">
+        <f>(C15*D15)*(100/100)</f>
+        <v>1652.36</v>
+      </c>
+      <c r="H15" s="12">
+        <f>G15/F23</f>
+        <v>94.636884306987383</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <f>294.35 * 2</f>
+        <v>588.70000000000005</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="1"/>
+        <v>588.70000000000005</v>
+      </c>
+      <c r="G16" s="11">
+        <f>(C16*D16)*(100/100)</f>
+        <v>588.70000000000005</v>
+      </c>
+      <c r="H16" s="12">
+        <f>G16/F23</f>
+        <v>33.717067583046962</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <f>464.99*2</f>
+        <v>929.98</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="1"/>
+        <v>929.98</v>
+      </c>
+      <c r="G17" s="11">
+        <f>(C17*D17)*(100/100)</f>
+        <v>929.98</v>
+      </c>
+      <c r="H17" s="12">
+        <f>G17/F23</f>
+        <v>53.263459335624283</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="14">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12">
+        <v>15000</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="G18" s="12">
         <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+      <c r="H18" s="12">
+        <f>G18/F23</f>
+        <v>3436.4261168384878</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="14">
+        <v>4</v>
+      </c>
+      <c r="D19" s="12">
+        <v>30000</v>
+      </c>
+      <c r="E19" s="18">
         <v>0</v>
       </c>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11">
-        <f>SUM(G3:G14)</f>
-        <v>473111.34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="2"/>
+      <c r="F19" s="11">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="G19" s="12">
+        <f>(C19*D19)*(100/100)</f>
+        <v>120000</v>
+      </c>
+      <c r="H19" s="12">
+        <f>G19/F23</f>
+        <v>6872.8522336769756</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="14">
+        <v>2</v>
+      </c>
+      <c r="D20" s="12">
+        <v>30000</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="11">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="G20" s="12">
+        <f>(C20*D20)*(100/100)</f>
+        <v>60000</v>
+      </c>
+      <c r="H20" s="12">
+        <f>G20/F23</f>
+        <v>3436.4261168384878</v>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="37">
+        <v>45061</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="25">
+        <v>17.46</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="28">
+        <f>SUM(Tabla1[TOTAL])</f>
+        <v>806246</v>
+      </c>
+      <c r="C24" s="30">
+        <f>SUM(Tabla1[Dolares])</f>
+        <v>46176.74684994272</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="22">
+        <v>2.25</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="24">
+        <f>SUM(G3:G20)*1.15</f>
+        <v>927182.89999999991</v>
+      </c>
+      <c r="C32" s="24">
+        <f>B32/F23</f>
+        <v>53103.258877434127</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="24">
+        <f>B32*2*1.25</f>
+        <v>2317957.25</v>
+      </c>
+      <c r="C33" s="24">
+        <f>B33/F23</f>
+        <v>132758.14719358532</v>
+      </c>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="24">
+        <f>B33-B32</f>
+        <v>1390774.35</v>
+      </c>
+      <c r="C34" s="24">
+        <f>B34/F23</f>
+        <v>79654.888316151206</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="24">
+        <f>B34/30</f>
+        <v>46359.145000000004</v>
+      </c>
+      <c r="C35" s="24">
+        <f>B35/F23</f>
+        <v>2655.1629438717068</v>
+      </c>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="24">
+        <f>B35*0.3</f>
+        <v>13907.7435</v>
+      </c>
+      <c r="C36" s="24">
+        <f>B36/F23</f>
+        <v>796.54888316151198</v>
+      </c>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="24">
+        <f>B35-B36</f>
+        <v>32451.401500000004</v>
+      </c>
+      <c r="C37" s="24">
+        <f>B37/F23</f>
+        <v>1858.6140607101947</v>
+      </c>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+    </row>
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+    </row>
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="36"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+    </row>
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="31">
+        <f>B45*0.25</f>
+        <v>33189.53679839633</v>
+      </c>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="31">
+        <f>B45*0.3</f>
+        <v>39827.444158075596</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="31">
+        <f>B45*0.4</f>
+        <v>53103.258877434127</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="31">
+        <f>B45*0.025</f>
+        <v>3318.953679839633</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="31">
+        <f>B45*0.025</f>
+        <v>3318.953679839633</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="31">
+        <f>C33</f>
+        <v>132758.14719358532</v>
+      </c>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="52" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+    </row>
+    <row r="53" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+    </row>
+    <row r="54" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+    </row>
+    <row r="55" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+    </row>
+    <row r="56" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="E42:J45"/>
+    <mergeCell ref="E28:J41"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{2421FD61-C521-45B2-8DF5-B7B485BF9E38}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{D9DB3FEB-3A05-490A-A601-E4659876CB25}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{D18119C8-5FA6-4F43-8CD8-2A77CC41275D}"/>
-    <hyperlink ref="H10" r:id="rId4" xr:uid="{9BE40A90-D202-4C44-8466-BCB4BDBFE904}"/>
-    <hyperlink ref="H12" r:id="rId5" xr:uid="{A7BF6B39-7EEC-4D0C-A1BF-9776AEF5C3D7}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{2421FD61-C521-45B2-8DF5-B7B485BF9E38}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{D9DB3FEB-3A05-490A-A601-E4659876CB25}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{D18119C8-5FA6-4F43-8CD8-2A77CC41275D}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{9BE40A90-D202-4C44-8466-BCB4BDBFE904}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{A7BF6B39-7EEC-4D0C-A1BF-9776AEF5C3D7}"/>
+    <hyperlink ref="I9" r:id="rId6" xr:uid="{9B74B351-3DA7-4DEA-A4D6-66E406BFB56F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <ignoredErrors>
+    <ignoredError sqref="H3:H5" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
+++ b/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\AntirShadow\Documents\GitHub\ProyectoRedes\Ventas\Propuesta Económica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA36B24-2EF2-4609-A043-47B40D1E5EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853E359E-9EEB-4EB0-B920-FAF64FBDFBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>PROPUESTA ECONÓMICA</t>
   </si>
@@ -167,9 +168,6 @@
     <t>Pesos</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
     <t>Vigencia</t>
   </si>
   <si>
@@ -191,9 +189,6 @@
     <t>Diseño de red: 30%</t>
   </si>
   <si>
-    <t>Mantenimiento Preventivo</t>
-  </si>
-  <si>
     <t>Compra e instalación de equipos de red: 40%</t>
   </si>
   <si>
@@ -221,23 +216,26 @@
     <t>Descripción Planes de Pago</t>
   </si>
   <si>
-    <t>Pago inicial: 25% del costo total del proyecto ($33,189.54 USD) al momento de firmar el contrato.
-Diseño de red: 30% del costo total del proyecto ($39,827.443 USD) al completar el diseño de red y entregarlo al cliente para su aprobación.
-Compra e instalación de equipos de red: 40% del costo total del proyecto ($53,103.26 USD) al completar la compra e instalación de los equipos de red en los 5 diferentes centros de la república.
-Monitoreo preventivo: 2.5% del costo total del proyecto ($3,318.95 USD) al completar el primer monitoreo preventivo, medio año después de la instalación de los equipos de red.
-Pago final: 2.5% del costo total del proyecto ($3,318.95) al completar el segundo monitoreo preventivo, 1 año después de la instalación de los equipos de red.</t>
-  </si>
-  <si>
     <t>Medios De Pago</t>
   </si>
   <si>
-    <t>Tarjeta de débito</t>
-  </si>
-  <si>
     <t>Tarjeta de Crédito</t>
   </si>
   <si>
-    <t>Pago total: 100% del pago al momento de firmar contrato (Se aplica 5% de descuento al total del proyecto. De $53,103.26 USD a $50,448.10 USD).</t>
+    <t>Tarjeta de Débito</t>
+  </si>
+  <si>
+    <t>Gastos Con porcentaje de Error</t>
+  </si>
+  <si>
+    <t>Pago inicial: 25% del costo total del proyecto ($33,390.88 USD) al momento de firmar el contrato.
+Diseño de red: 30% del costo total del proyecto ($40,069.05 USD) al completar el diseño de red y entregarlo al cliente para su aprobación.
+Compra e instalación de equipos de red: 40% del costo total del proyecto ($53,425.40 USD) al completar la compra e instalación de los equipos de red en los 5 diferentes centros de la república.
+Monitoreo preventivo: 2.5% del costo total del proyecto ($3,339.09 USD) al completar el primer monitoreo preventivo, medio año después de la instalación de los equipos de red.
+Pago final: 2.5% del costo total del proyecto ($3,339.09) al completar el segundo monitoreo preventivo, 1 año después de la instalación de los equipos de red.</t>
+  </si>
+  <si>
+    <t>Pago total: 100% del pago al momento de firmar contrato (Se aplica 5% de descuento al total del proyecto. De $133,563.50 USD a $126,885.33 USD).</t>
   </si>
 </sst>
 </file>
@@ -248,7 +246,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -263,21 +261,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="36"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,12 +293,14 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,6 +354,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -400,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -493,139 +511,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="12" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -639,44 +689,6 @@
     <cellStyle name="Porcentaje" xfId="5" builtinId="5"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -696,7 +708,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -715,6 +727,45 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -796,8 +847,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:I20" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A2:I20" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:I19" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A2:I19" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F6F1872D-62D6-465A-9EB6-D1E64C7FD1EA}" name="N ITEM" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{05A4D583-BEEA-420F-8DC9-DB385506B921}" name="DESCRIPCIÓN" dataDxfId="6"/>
@@ -805,13 +856,13 @@
     <tableColumn id="4" xr3:uid="{17DCB875-5E51-4C91-B16E-78560646B0A5}" name="PRECIO UNITARIO" dataDxfId="4" dataCellStyle="Moneda"/>
     <tableColumn id="8" xr3:uid="{9504F072-2CE8-4154-ADE6-5071E962149C}" name="DESCUENTOS"/>
     <tableColumn id="5" xr3:uid="{DAECB143-E7A2-4C29-91CB-3EBCE0FFA4CA}" name="SUBTOTAL" dataDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="10" xr3:uid="{B913AF07-4667-4467-8BAC-58B0321E83ED}" name="TOTAL" dataDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="10" xr3:uid="{B913AF07-4667-4467-8BAC-58B0321E83ED}" name="TOTAL" dataDxfId="2" dataCellStyle="Moneda">
       <calculatedColumnFormula>(C3*D3)*(100/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1ADA9541-18CA-4B01-BDAC-D6008F0FAA29}" name="Dolares" dataDxfId="0" dataCellStyle="Moneda">
-      <calculatedColumnFormula>G3/$F23</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{1ADA9541-18CA-4B01-BDAC-D6008F0FAA29}" name="Dolares" dataDxfId="1" dataCellStyle="Moneda">
+      <calculatedColumnFormula>G3/Hoja1!$F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CDC3B595-CE04-4E68-9C64-2BFC0D49CE76}" name="LINK" dataDxfId="2" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="6" xr3:uid="{CDC3B595-CE04-4E68-9C64-2BFC0D49CE76}" name="LINK" dataDxfId="0" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1018,10 +1069,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1038,17 +1089,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1063,16 +1114,16 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1089,22 +1140,22 @@
       <c r="C3" s="7">
         <v>15</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="46">
         <v>8969</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>15</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="47">
         <f>C3*D3</f>
         <v>134535</v>
       </c>
-      <c r="G3" s="12">
-        <f t="shared" ref="G3:G11" si="0">(C3*D3)*(100/100)</f>
+      <c r="G3" s="48">
+        <f>(C3*D3)*(100/100)</f>
         <v>134535</v>
       </c>
-      <c r="H3" s="12">
-        <f>G3/F23</f>
+      <c r="H3" s="48">
+        <f>G3/Hoja1!F2</f>
         <v>7705.3264604810993</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -1121,22 +1172,22 @@
       <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="46">
         <v>11310</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>5</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="47">
         <f>C4*D4</f>
         <v>56550</v>
       </c>
-      <c r="G4" s="12">
-        <f t="shared" si="0"/>
+      <c r="G4" s="48">
+        <f>(C4*D4)*(100/100)</f>
         <v>56550</v>
       </c>
-      <c r="H4" s="12">
-        <f>G4/F23</f>
+      <c r="H4" s="48">
+        <f>G4/Hoja1!F2</f>
         <v>3238.8316151202748</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -1153,22 +1204,22 @@
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="47">
         <v>30000</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="47">
         <f>C5*D5</f>
         <v>90000</v>
       </c>
-      <c r="G5" s="12">
-        <f t="shared" si="0"/>
+      <c r="G5" s="48">
+        <f>(C5*D5)*(100/100)</f>
         <v>90000</v>
       </c>
-      <c r="H5" s="12">
-        <f>G5/F23</f>
+      <c r="H5" s="48">
+        <f>G5/Hoja1!F2</f>
         <v>5154.6391752577319</v>
       </c>
       <c r="I5" s="9"/>
@@ -1183,22 +1234,22 @@
       <c r="C6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="47">
         <v>1149</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>10</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="47">
         <f>C6*D6</f>
         <v>10341</v>
       </c>
-      <c r="G6" s="12">
-        <f t="shared" si="0"/>
+      <c r="G6" s="48">
+        <f>(C6*D6)*(100/100)</f>
         <v>10341</v>
       </c>
-      <c r="H6" s="12">
-        <f>G6/F23</f>
+      <c r="H6" s="48">
+        <f>G6/Hoja1!F2</f>
         <v>592.26804123711338</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -1215,22 +1266,22 @@
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="47">
         <v>152.28</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="11">
-        <f t="shared" ref="F7:F20" si="1">C7*D7</f>
+      <c r="F7" s="47">
+        <f>C7*D7</f>
         <v>761.4</v>
       </c>
-      <c r="G7" s="12">
-        <f t="shared" si="0"/>
+      <c r="G7" s="48">
+        <f>(C7*D7)*(100/100)</f>
         <v>761.4</v>
       </c>
-      <c r="H7" s="12">
-        <f>G7/F23</f>
+      <c r="H7" s="48">
+        <f>G7/Hoja1!F2</f>
         <v>43.608247422680407</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -1247,22 +1298,22 @@
       <c r="C8" s="7">
         <v>120</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="47">
         <v>500</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>0</v>
       </c>
-      <c r="F8" s="11">
-        <f t="shared" si="1"/>
+      <c r="F8" s="47">
+        <f>C8*D8</f>
         <v>60000</v>
       </c>
-      <c r="G8" s="12">
-        <f t="shared" si="0"/>
+      <c r="G8" s="48">
+        <f>(C8*D8)*(100/100)</f>
         <v>60000</v>
       </c>
-      <c r="H8" s="12">
-        <f>G8/F23</f>
+      <c r="H8" s="48">
+        <f>G8/Hoja1!F2</f>
         <v>3436.4261168384878</v>
       </c>
       <c r="I8" s="8"/>
@@ -1277,22 +1328,22 @@
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="47">
         <v>2034.933</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>0</v>
       </c>
-      <c r="F9" s="11">
-        <f t="shared" si="1"/>
+      <c r="F9" s="47">
+        <f>C9*D9</f>
         <v>30523.994999999999</v>
       </c>
-      <c r="G9" s="12">
-        <f t="shared" si="0"/>
+      <c r="G9" s="48">
+        <f>(C9*D9)*(100/100)</f>
         <v>30523.994999999999</v>
       </c>
-      <c r="H9" s="12">
-        <f>G9/F23</f>
+      <c r="H9" s="48">
+        <f>G9/Hoja1!F2</f>
         <v>1748.2242268041236</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -1306,25 +1357,25 @@
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>15</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="48">
         <v>1939.4</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>0</v>
       </c>
-      <c r="F10" s="11">
-        <f t="shared" si="1"/>
+      <c r="F10" s="47">
+        <f>C10*D10</f>
         <v>29091</v>
       </c>
-      <c r="G10" s="12">
-        <f t="shared" si="0"/>
+      <c r="G10" s="48">
+        <f>(C10*D10)*(100/100)</f>
         <v>29091</v>
       </c>
-      <c r="H10" s="12">
-        <f>G10/F23</f>
+      <c r="H10" s="48">
+        <f>G10/Hoja1!F2</f>
         <v>1666.1512027491408</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -1338,25 +1389,25 @@
       <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>15</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="48">
         <v>1945.93</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>0</v>
       </c>
-      <c r="F11" s="11">
-        <f t="shared" si="1"/>
+      <c r="F11" s="47">
+        <f>C11*D11</f>
         <v>29188.95</v>
       </c>
-      <c r="G11" s="12">
-        <f t="shared" si="0"/>
+      <c r="G11" s="48">
+        <f>(C11*D11)*(100/100)</f>
         <v>29188.95</v>
       </c>
-      <c r="H11" s="12">
-        <f>G11/F23</f>
+      <c r="H11" s="48">
+        <f>G11/Hoja1!F2</f>
         <v>1671.7611683848797</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -1370,25 +1421,25 @@
       <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>15</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="48">
         <v>2141.3330000000001</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>0</v>
       </c>
-      <c r="F12" s="11">
-        <f t="shared" si="1"/>
+      <c r="F12" s="47">
+        <f>C12*D12</f>
         <v>32119.995000000003</v>
       </c>
-      <c r="G12" s="12">
-        <f t="shared" ref="G12" si="2">(C12*D12)*(100/100)</f>
+      <c r="G12" s="48">
+        <f>(C12*D12)*(100/100)</f>
         <v>32119.995000000003</v>
       </c>
-      <c r="H12" s="12">
-        <f>G12/F23</f>
+      <c r="H12" s="48">
+        <f>G12/Hoja1!F2</f>
         <v>1839.6331615120275</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -1402,25 +1453,25 @@
       <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>4</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="48">
         <v>21834.65</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>0</v>
       </c>
-      <c r="F13" s="11">
-        <f t="shared" si="1"/>
+      <c r="F13" s="47">
+        <f>C13*D13</f>
         <v>87338.6</v>
       </c>
-      <c r="G13" s="12">
-        <f t="shared" ref="G13:G18" si="3">(C13*D13)*(100/100)</f>
+      <c r="G13" s="48">
+        <f>(C13*D13)*(100/100)</f>
         <v>87338.6</v>
       </c>
-      <c r="H13" s="12">
-        <f>G13/F23</f>
+      <c r="H13" s="48">
+        <f>G13/Hoja1!F2</f>
         <v>5002.2107674684994</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -1437,23 +1488,23 @@
       <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="48">
         <f>1312.51*2</f>
         <v>2625.02</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>0</v>
       </c>
-      <c r="F14" s="11">
-        <f t="shared" si="1"/>
+      <c r="F14" s="47">
+        <f>C14*D14</f>
         <v>2625.02</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="47">
         <f>(C14*D14)*(100/100)</f>
         <v>2625.02</v>
       </c>
-      <c r="H14" s="12">
-        <f>G14/F23</f>
+      <c r="H14" s="48">
+        <f>G14/Hoja1!F2</f>
         <v>150.34478808705612</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -1470,23 +1521,23 @@
       <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="47">
         <f>2*826.18</f>
         <v>1652.36</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>0</v>
       </c>
-      <c r="F15" s="11">
-        <f t="shared" si="1"/>
+      <c r="F15" s="47">
+        <f>C15*D15</f>
         <v>1652.36</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="47">
         <f>(C15*D15)*(100/100)</f>
         <v>1652.36</v>
       </c>
-      <c r="H15" s="12">
-        <f>G15/F23</f>
+      <c r="H15" s="48">
+        <f>G15/Hoja1!F2</f>
         <v>94.636884306987383</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -1503,30 +1554,30 @@
       <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="48">
         <f>294.35 * 2</f>
         <v>588.70000000000005</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>0</v>
       </c>
-      <c r="F16" s="11">
-        <f t="shared" si="1"/>
+      <c r="F16" s="47">
+        <f>C16*D16</f>
         <v>588.70000000000005</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="47">
         <f>(C16*D16)*(100/100)</f>
         <v>588.70000000000005</v>
       </c>
-      <c r="H16" s="12">
-        <f>G16/F23</f>
+      <c r="H16" s="48">
+        <f>G16/Hoja1!F2</f>
         <v>33.717067583046962</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1536,569 +1587,158 @@
       <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="48">
         <f>464.99*2</f>
         <v>929.98</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>0</v>
       </c>
-      <c r="F17" s="11">
-        <f t="shared" si="1"/>
+      <c r="F17" s="47">
+        <f>C17*D17</f>
         <v>929.98</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="47">
         <f>(C17*D17)*(100/100)</f>
         <v>929.98</v>
       </c>
-      <c r="H17" s="12">
-        <f>G17/F23</f>
+      <c r="H17" s="48">
+        <f>G17/Hoja1!F2</f>
         <v>53.263459335624283</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>4</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="48">
         <v>15000</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>0</v>
       </c>
-      <c r="F18" s="11">
-        <f t="shared" si="1"/>
+      <c r="F18" s="47">
+        <f>C18*D18</f>
         <v>60000</v>
       </c>
-      <c r="G18" s="12">
-        <f t="shared" si="3"/>
+      <c r="G18" s="48">
+        <f>(C18*D18)*(100/100)</f>
         <v>60000</v>
       </c>
-      <c r="H18" s="12">
-        <f>G18/F23</f>
+      <c r="H18" s="48">
+        <f>G18/Hoja1!F2</f>
         <v>3436.4261168384878</v>
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>4</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="48">
         <v>30000</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>0</v>
       </c>
-      <c r="F19" s="11">
-        <f t="shared" si="1"/>
+      <c r="F19" s="47">
+        <f>C19*D19</f>
         <v>120000</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="48">
         <f>(C19*D19)*(100/100)</f>
         <v>120000</v>
       </c>
-      <c r="H19" s="12">
-        <f>G19/F23</f>
+      <c r="H19" s="48">
+        <f>G19/Hoja1!F2</f>
         <v>6872.8522336769756</v>
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="14">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12">
-        <v>30000</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="11">
-        <f t="shared" si="1"/>
-        <v>60000</v>
-      </c>
-      <c r="G20" s="12">
-        <f>(C20*D20)*(100/100)</f>
-        <v>60000</v>
-      </c>
-      <c r="H20" s="12">
-        <f>G20/F23</f>
-        <v>3436.4261168384878</v>
-      </c>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="37">
-        <v>45061</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="25">
-        <v>17.46</v>
-      </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="28">
-        <f>SUM(Tabla1[TOTAL])</f>
-        <v>806246</v>
-      </c>
-      <c r="C24" s="30">
-        <f>SUM(Tabla1[Dolares])</f>
-        <v>46176.74684994272</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="22">
-        <v>0.15</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="22">
-        <v>2.25</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="36"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-    </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="24">
-        <f>SUM(G3:G20)*1.15</f>
-        <v>927182.89999999991</v>
-      </c>
-      <c r="C32" s="24">
-        <f>B32/F23</f>
-        <v>53103.258877434127</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="24">
-        <f>B32*2*1.25</f>
-        <v>2317957.25</v>
-      </c>
-      <c r="C33" s="24">
-        <f>B33/F23</f>
-        <v>132758.14719358532</v>
-      </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="24">
-        <f>B33-B32</f>
-        <v>1390774.35</v>
-      </c>
-      <c r="C34" s="24">
-        <f>B34/F23</f>
-        <v>79654.888316151206</v>
-      </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="24">
-        <f>B34/30</f>
-        <v>46359.145000000004</v>
-      </c>
-      <c r="C35" s="24">
-        <f>B35/F23</f>
-        <v>2655.1629438717068</v>
-      </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="24">
-        <f>B35*0.3</f>
-        <v>13907.7435</v>
-      </c>
-      <c r="C36" s="24">
-        <f>B36/F23</f>
-        <v>796.54888316151198</v>
-      </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="24">
-        <f>B35-B36</f>
-        <v>32451.401500000004</v>
-      </c>
-      <c r="C37" s="24">
-        <f>B37/F23</f>
-        <v>1858.6140607101947</v>
-      </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="36"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="31">
-        <f>B45*0.25</f>
-        <v>33189.53679839633</v>
-      </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="31">
-        <f>B45*0.3</f>
-        <v>39827.444158075596</v>
-      </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="31">
-        <f>B45*0.4</f>
-        <v>53103.258877434127</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="31">
-        <f>B45*0.025</f>
-        <v>3318.953679839633</v>
-      </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="31">
-        <f>B45*0.025</f>
-        <v>3318.953679839633</v>
-      </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="31">
-        <f>C33</f>
-        <v>132758.14719358532</v>
-      </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F48" s="2"/>
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="51" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="54" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="39"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
     </row>
     <row r="55" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-    </row>
-    <row r="56" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="E42:J45"/>
-    <mergeCell ref="E28:J41"/>
-    <mergeCell ref="E27:J27"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{2421FD61-C521-45B2-8DF5-B7B485BF9E38}"/>
@@ -2117,4 +1757,463 @@
     <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DA5CF6-1881-4FFE-91A5-A2EC9A454F01}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="38">
+        <v>45061</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="45">
+        <v>17.46</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="43">
+        <f>SUM(Tabla1[TOTAL])</f>
+        <v>746246</v>
+      </c>
+      <c r="C3" s="44">
+        <f>SUM(Tabla1[Dolares])</f>
+        <v>42740.320733104229</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="31"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="21">
+        <f>B3*1.25</f>
+        <v>932807.5</v>
+      </c>
+      <c r="C11" s="49">
+        <f>B11/F2</f>
+        <v>53425.400916380298</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="21">
+        <f>B11*2*1.25</f>
+        <v>2332018.75</v>
+      </c>
+      <c r="C12" s="21">
+        <f>B12/F2</f>
+        <v>133563.50229095074</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="21">
+        <f>B12-B11</f>
+        <v>1399211.25</v>
+      </c>
+      <c r="C13" s="21">
+        <f>B13/F2</f>
+        <v>80138.10137457044</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="21">
+        <f>B13/30</f>
+        <v>46640.375</v>
+      </c>
+      <c r="C14" s="21">
+        <f>B14/F2</f>
+        <v>2671.2700458190147</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="21">
+        <f>B14*0.3</f>
+        <v>13992.112499999999</v>
+      </c>
+      <c r="C15" s="21">
+        <f>B15/F2</f>
+        <v>801.38101374570442</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="21">
+        <f>B14-B15</f>
+        <v>32648.262500000001</v>
+      </c>
+      <c r="C16" s="21">
+        <f>B16/F2</f>
+        <v>1869.8890320733103</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="21">
+        <f>B25*0.25</f>
+        <v>583004.6875</v>
+      </c>
+      <c r="C20" s="21">
+        <f>C25*0.25</f>
+        <v>33390.875572737685</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="21">
+        <f>B25*0.3</f>
+        <v>699605.625</v>
+      </c>
+      <c r="C21" s="21">
+        <f>C25*0.3</f>
+        <v>40069.05068728522</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="21">
+        <f>B25*0.4</f>
+        <v>932807.5</v>
+      </c>
+      <c r="C22" s="21">
+        <f>C25*0.4</f>
+        <v>53425.400916380298</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="21">
+        <f>B25*0.25</f>
+        <v>583004.6875</v>
+      </c>
+      <c r="C23" s="21">
+        <f>C25*0.025</f>
+        <v>3339.0875572737687</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="21">
+        <f>B25*0.25</f>
+        <v>583004.6875</v>
+      </c>
+      <c r="C24" s="21">
+        <f>C25*0.025</f>
+        <v>3339.0875572737687</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="21">
+        <f>B12</f>
+        <v>2332018.75</v>
+      </c>
+      <c r="C25" s="21">
+        <f>C12</f>
+        <v>133563.50229095074</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G29" s="53"/>
+      <c r="H29" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E21:J24"/>
+    <mergeCell ref="E7:J20"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
+++ b/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\AntirShadow\Documents\GitHub\ProyectoRedes\Ventas\Propuesta Económica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AntirShadow\Documents\GitHub\ProyectoRedes\Ventas\Propuesta Económica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853E359E-9EEB-4EB0-B920-FAF64FBDFBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22E69DD-6406-4F1D-B8B8-E7723ADE2EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>PROPUESTA ECONÓMICA</t>
   </si>
@@ -81,9 +81,6 @@
     <t>https://articulo.mercadolibre.com.mx/MLM-885299270-cable-de-red-utp-cat-6e-bobina-305m-exterior-_JM?matt_tool=28238160&amp;utm_source=google_shopping&amp;utm_medium=organic</t>
   </si>
   <si>
-    <t>Conector RJ45 Cat7 (100 piezas)</t>
-  </si>
-  <si>
     <t>https://articulo.mercadolibre.com.mx/MLM-1300594446-100-piezas-cable-cat6-rj45-conectores-cat6-cat5e-rj45utp-_JM#position=5&amp;search_layout=grid&amp;type=item&amp;tracking_id=d26aa09f-a4f7-44a7-b455-ec3998c093b6</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Total USD</t>
   </si>
   <si>
     <t>Pago inicial: 25%</t>
@@ -236,6 +230,15 @@
   </si>
   <si>
     <t>Pago total: 100% del pago al momento de firmar contrato (Se aplica 5% de descuento al total del proyecto. De $133,563.50 USD a $126,885.33 USD).</t>
+  </si>
+  <si>
+    <t>Impuestos Retenidos Por Persona</t>
+  </si>
+  <si>
+    <t>Cheques</t>
+  </si>
+  <si>
+    <t>Conector RJ45 Cat6 (100 piezas)</t>
   </si>
 </sst>
 </file>
@@ -243,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -359,6 +362,15 @@
       <u val="singleAccounting"/>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -528,14 +540,14 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -565,16 +577,16 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -588,8 +600,8 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="9" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,76 +618,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="9" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -708,7 +723,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -727,7 +742,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -746,7 +761,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -765,7 +780,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1071,37 +1086,41 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B12"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:9" ht="46.2" x14ac:dyDescent="0.85">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1115,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -1124,13 +1143,13 @@
         <v>6</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1140,21 +1159,21 @@
       <c r="C3" s="7">
         <v>15</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="33">
         <v>8969</v>
       </c>
       <c r="E3" s="16">
         <v>15</v>
       </c>
-      <c r="F3" s="47">
-        <f>C3*D3</f>
+      <c r="F3" s="34">
+        <f t="shared" ref="F3:F19" si="0">C3*D3</f>
         <v>134535</v>
       </c>
-      <c r="G3" s="48">
-        <f>(C3*D3)*(100/100)</f>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G19" si="1">(C3*D3)*(100/100)</f>
         <v>134535</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="14">
         <f>G3/Hoja1!F2</f>
         <v>7705.3264604810993</v>
       </c>
@@ -1162,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1172,21 +1191,21 @@
       <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="33">
         <v>11310</v>
       </c>
       <c r="E4" s="16">
         <v>5</v>
       </c>
-      <c r="F4" s="47">
-        <f>C4*D4</f>
+      <c r="F4" s="34">
+        <f t="shared" si="0"/>
         <v>56550</v>
       </c>
-      <c r="G4" s="48">
-        <f>(C4*D4)*(100/100)</f>
+      <c r="G4" s="14">
+        <f t="shared" si="1"/>
         <v>56550</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="14">
         <f>G4/Hoja1!F2</f>
         <v>3238.8316151202748</v>
       </c>
@@ -1194,7 +1213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1204,51 +1223,51 @@
       <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="34">
         <v>30000</v>
       </c>
       <c r="E5" s="16">
         <v>0</v>
       </c>
-      <c r="F5" s="47">
-        <f>C5*D5</f>
+      <c r="F5" s="34">
+        <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="G5" s="48">
-        <f>(C5*D5)*(100/100)</f>
+      <c r="G5" s="14">
+        <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="14">
         <f>G5/Hoja1!F2</f>
         <v>5154.6391752577319</v>
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="7">
         <v>9</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="34">
         <v>1149</v>
       </c>
       <c r="E6" s="16">
         <v>10</v>
       </c>
-      <c r="F6" s="47">
-        <f>C6*D6</f>
+      <c r="F6" s="34">
+        <f t="shared" si="0"/>
         <v>10341</v>
       </c>
-      <c r="G6" s="48">
-        <f>(C6*D6)*(100/100)</f>
+      <c r="G6" s="14">
+        <f t="shared" si="1"/>
         <v>10341</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="14">
         <f>G6/Hoja1!F2</f>
         <v>592.26804123711338</v>
       </c>
@@ -1256,421 +1275,421 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="55" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="34">
         <v>152.28</v>
       </c>
       <c r="E7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="47">
-        <f>C7*D7</f>
+      <c r="F7" s="34">
+        <f t="shared" si="0"/>
         <v>761.4</v>
       </c>
-      <c r="G7" s="48">
-        <f>(C7*D7)*(100/100)</f>
+      <c r="G7" s="14">
+        <f t="shared" si="1"/>
         <v>761.4</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="14">
         <f>G7/Hoja1!F2</f>
         <v>43.608247422680407</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>120</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="34">
         <v>500</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
       </c>
-      <c r="F8" s="47">
-        <f>C8*D8</f>
+      <c r="F8" s="34">
+        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="G8" s="48">
-        <f>(C8*D8)*(100/100)</f>
+      <c r="G8" s="14">
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="14">
         <f>G8/Hoja1!F2</f>
         <v>3436.4261168384878</v>
       </c>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="34">
         <v>2034.933</v>
       </c>
       <c r="E9" s="17">
         <v>0</v>
       </c>
-      <c r="F9" s="47">
-        <f>C9*D9</f>
+      <c r="F9" s="34">
+        <f t="shared" si="0"/>
         <v>30523.994999999999</v>
       </c>
-      <c r="G9" s="48">
-        <f>(C9*D9)*(100/100)</f>
+      <c r="G9" s="14">
+        <f t="shared" si="1"/>
         <v>30523.994999999999</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="14">
         <f>G9/Hoja1!F2</f>
         <v>1748.2242268041236</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="13">
         <v>15</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="14">
         <v>1939.4</v>
       </c>
       <c r="E10" s="17">
         <v>0</v>
       </c>
-      <c r="F10" s="47">
-        <f>C10*D10</f>
+      <c r="F10" s="34">
+        <f t="shared" si="0"/>
         <v>29091</v>
       </c>
-      <c r="G10" s="48">
-        <f>(C10*D10)*(100/100)</f>
+      <c r="G10" s="14">
+        <f t="shared" si="1"/>
         <v>29091</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="14">
         <f>G10/Hoja1!F2</f>
         <v>1666.1512027491408</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="13">
         <v>15</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="14">
         <v>1945.93</v>
       </c>
       <c r="E11" s="17">
         <v>0</v>
       </c>
-      <c r="F11" s="47">
-        <f>C11*D11</f>
+      <c r="F11" s="34">
+        <f t="shared" si="0"/>
         <v>29188.95</v>
       </c>
-      <c r="G11" s="48">
-        <f>(C11*D11)*(100/100)</f>
+      <c r="G11" s="14">
+        <f t="shared" si="1"/>
         <v>29188.95</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="14">
         <f>G11/Hoja1!F2</f>
         <v>1671.7611683848797</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="13">
         <v>15</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="14">
         <v>2141.3330000000001</v>
       </c>
       <c r="E12" s="17">
         <v>0</v>
       </c>
-      <c r="F12" s="47">
-        <f>C12*D12</f>
+      <c r="F12" s="34">
+        <f t="shared" si="0"/>
         <v>32119.995000000003</v>
       </c>
-      <c r="G12" s="48">
-        <f>(C12*D12)*(100/100)</f>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
         <v>32119.995000000003</v>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="14">
         <f>G12/Hoja1!F2</f>
         <v>1839.6331615120275</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="13">
         <v>4</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="14">
         <v>21834.65</v>
       </c>
       <c r="E13" s="17">
         <v>0</v>
       </c>
-      <c r="F13" s="47">
-        <f>C13*D13</f>
+      <c r="F13" s="34">
+        <f t="shared" si="0"/>
         <v>87338.6</v>
       </c>
-      <c r="G13" s="48">
-        <f>(C13*D13)*(100/100)</f>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
         <v>87338.6</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="14">
         <f>G13/Hoja1!F2</f>
         <v>5002.2107674684994</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="14">
         <f>1312.51*2</f>
         <v>2625.02</v>
       </c>
       <c r="E14" s="17">
         <v>0</v>
       </c>
-      <c r="F14" s="47">
-        <f>C14*D14</f>
+      <c r="F14" s="34">
+        <f t="shared" si="0"/>
         <v>2625.02</v>
       </c>
-      <c r="G14" s="47">
-        <f>(C14*D14)*(100/100)</f>
+      <c r="G14" s="34">
+        <f t="shared" si="1"/>
         <v>2625.02</v>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="14">
         <f>G14/Hoja1!F2</f>
         <v>150.34478808705612</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="34">
         <f>2*826.18</f>
         <v>1652.36</v>
       </c>
       <c r="E15" s="17">
         <v>0</v>
       </c>
-      <c r="F15" s="47">
-        <f>C15*D15</f>
+      <c r="F15" s="34">
+        <f t="shared" si="0"/>
         <v>1652.36</v>
       </c>
-      <c r="G15" s="47">
-        <f>(C15*D15)*(100/100)</f>
+      <c r="G15" s="34">
+        <f t="shared" si="1"/>
         <v>1652.36</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="14">
         <f>G15/Hoja1!F2</f>
         <v>94.636884306987383</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="14">
         <f>294.35 * 2</f>
         <v>588.70000000000005</v>
       </c>
       <c r="E16" s="17">
         <v>0</v>
       </c>
-      <c r="F16" s="47">
-        <f>C16*D16</f>
+      <c r="F16" s="34">
+        <f t="shared" si="0"/>
         <v>588.70000000000005</v>
       </c>
-      <c r="G16" s="47">
-        <f>(C16*D16)*(100/100)</f>
+      <c r="G16" s="34">
+        <f t="shared" si="1"/>
         <v>588.70000000000005</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="14">
         <f>G16/Hoja1!F2</f>
         <v>33.717067583046962</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="14">
         <f>464.99*2</f>
         <v>929.98</v>
       </c>
       <c r="E17" s="17">
         <v>0</v>
       </c>
-      <c r="F17" s="47">
-        <f>C17*D17</f>
+      <c r="F17" s="34">
+        <f t="shared" si="0"/>
         <v>929.98</v>
       </c>
-      <c r="G17" s="47">
-        <f>(C17*D17)*(100/100)</f>
+      <c r="G17" s="34">
+        <f t="shared" si="1"/>
         <v>929.98</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="14">
         <f>G17/Hoja1!F2</f>
         <v>53.263459335624283</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="13">
         <v>4</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="14">
         <v>15000</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
       </c>
-      <c r="F18" s="47">
-        <f>C18*D18</f>
+      <c r="F18" s="34">
+        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="G18" s="48">
-        <f>(C18*D18)*(100/100)</f>
+      <c r="G18" s="14">
+        <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="14">
         <f>G18/Hoja1!F2</f>
         <v>3436.4261168384878</v>
       </c>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="13">
         <v>4</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="14">
         <v>30000</v>
       </c>
       <c r="E19" s="17">
         <v>0</v>
       </c>
-      <c r="F19" s="47">
-        <f>C19*D19</f>
+      <c r="F19" s="34">
+        <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="G19" s="48">
-        <f>(C19*D19)*(100/100)</f>
+      <c r="G19" s="14">
+        <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="14">
         <f>G19/Hoja1!F2</f>
         <v>6872.8522336769756</v>
       </c>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="6"/>
       <c r="C20" s="13"/>
@@ -1681,22 +1700,22 @@
       <c r="H20" s="12"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="6:6" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="2"/>
     </row>
-    <row r="51" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -1704,7 +1723,7 @@
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
     </row>
-    <row r="52" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -1712,7 +1731,7 @@
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
     </row>
-    <row r="53" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
@@ -1720,7 +1739,7 @@
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
     </row>
-    <row r="54" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -1728,7 +1747,7 @@
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
     </row>
-    <row r="55" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -1747,14 +1766,15 @@
     <hyperlink ref="I10" r:id="rId4" xr:uid="{9BE40A90-D202-4C44-8466-BCB4BDBFE904}"/>
     <hyperlink ref="I12" r:id="rId5" xr:uid="{A7BF6B39-7EEC-4D0C-A1BF-9776AEF5C3D7}"/>
     <hyperlink ref="I9" r:id="rId6" xr:uid="{9B74B351-3DA7-4DEA-A4D6-66E406BFB56F}"/>
+    <hyperlink ref="I7" r:id="rId7" location="position=5&amp;search_layout=grid&amp;type=item&amp;tracking_id=d26aa09f-a4f7-44a7-b455-ec3998c093b6" xr:uid="{4865831C-F97A-455F-9B3E-7D7A9C269B34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <ignoredErrors>
     <ignoredError sqref="H3:H5" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1764,188 +1784,191 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="E7" sqref="E7:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+    <row r="1" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="38">
+      <c r="E1" s="48">
         <v>45061</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="12"/>
       <c r="H1" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="45">
+        <v>41</v>
+      </c>
+      <c r="F2" s="32">
         <v>17.46</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="43">
+        <v>46</v>
+      </c>
+      <c r="B3" s="30">
         <f>SUM(Tabla1[TOTAL])</f>
         <v>746246</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="31">
         <f>SUM(Tabla1[Dolares])</f>
         <v>42740.320733104229</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="40"/>
+      <c r="H4" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="50"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="19">
         <v>0.15</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="E6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="19">
         <v>2.25</v>
       </c>
-      <c r="E7" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="31"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="E7" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
       <c r="B10" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A11" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="21">
         <f>B3*1.25</f>
         <v>932807.5</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="35">
         <f>B11/F2</f>
         <v>53425.400916380298</v>
       </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="21">
         <f>B11*2*1.25</f>
@@ -1955,16 +1978,16 @@
         <f>B12/F2</f>
         <v>133563.50229095074</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="21">
         <f>B12-B11</f>
@@ -1974,16 +1997,16 @@
         <f>B13/F2</f>
         <v>80138.10137457044</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="21">
         <f>B13/30</f>
@@ -1993,16 +2016,16 @@
         <f>B14/F2</f>
         <v>2671.2700458190147</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B15" s="21">
         <f>B14*0.3</f>
@@ -2012,16 +2035,16 @@
         <f>B15/F2</f>
         <v>801.38101374570442</v>
       </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="21">
         <f>B14-B15</f>
@@ -2031,52 +2054,52 @@
         <f>B16/F2</f>
         <v>1869.8890320733103</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="21">
         <f>B25*0.25</f>
@@ -2086,16 +2109,16 @@
         <f>C25*0.25</f>
         <v>33390.875572737685</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="21">
         <f>B25*0.3</f>
@@ -2105,18 +2128,18 @@
         <f>C25*0.3</f>
         <v>40069.05068728522</v>
       </c>
-      <c r="E21" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="E21" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="21">
         <f>B25*0.4</f>
@@ -2126,16 +2149,16 @@
         <f>C25*0.4</f>
         <v>53425.400916380298</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" s="21">
         <f>B25*0.25</f>
@@ -2145,16 +2168,16 @@
         <f>C25*0.025</f>
         <v>3339.0875572737687</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="21">
         <f>B25*0.25</f>
@@ -2165,16 +2188,16 @@
         <v>3339.0875572737687</v>
       </c>
       <c r="D24" s="20"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="21">
         <f>B12</f>
@@ -2191,7 +2214,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
@@ -2199,8 +2222,8 @@
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G29" s="53"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="38"/>
       <c r="H29" s="20"/>
     </row>
   </sheetData>
@@ -2215,5 +2238,6 @@
     <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
+++ b/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AntirShadow\Documents\GitHub\ProyectoRedes\Ventas\Propuesta Económica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22E69DD-6406-4F1D-B8B8-E7723ADE2EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D558AD85-2BF6-4A1D-A4B9-73ECB5C9C6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Cotización" sheetId="1" r:id="rId1"/>
+    <sheet name="Ganancias" sheetId="4" r:id="rId2"/>
+    <sheet name="Desglose Proyecto" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
   <si>
     <t>PROPUESTA ECONÓMICA</t>
   </si>
@@ -138,13 +139,7 @@
     <t>Pago chofer 15 días</t>
   </si>
   <si>
-    <t>Porcentaje de error</t>
-  </si>
-  <si>
     <t>Camioneta transporte Accesorios y Movilidad</t>
-  </si>
-  <si>
-    <t>Porcentaje Ganancia</t>
   </si>
   <si>
     <t>Venta</t>
@@ -240,20 +235,151 @@
   <si>
     <t>Conector RJ45 Cat6 (100 piezas)</t>
   </si>
+  <si>
+    <t>Viáticos</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Pago Estimados Mensuales de Empleados</t>
+  </si>
+  <si>
+    <t>Gerentes</t>
+  </si>
+  <si>
+    <t>Analistas</t>
+  </si>
+  <si>
+    <t>Capital Humano</t>
+  </si>
+  <si>
+    <t>Proyectos estipulados por año</t>
+  </si>
+  <si>
+    <t>Ganancia por proyecto</t>
+  </si>
+  <si>
+    <t>Ganancia primer proyecto</t>
+  </si>
+  <si>
+    <t>Utilidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganancia Utilidades </t>
+  </si>
+  <si>
+    <t>Pago Neto</t>
+  </si>
+  <si>
+    <t>Pago Bruto</t>
+  </si>
+  <si>
+    <t>Trabajadores</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Puesto</t>
+  </si>
+  <si>
+    <t>Total Neto</t>
+  </si>
+  <si>
+    <t>Total Bruto</t>
+  </si>
+  <si>
+    <t>Total proyecto con 13% de ganancia</t>
+  </si>
+  <si>
+    <t>Utilidades por trabajador</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Líderes</t>
+  </si>
+  <si>
+    <t>Total 60%</t>
+  </si>
+  <si>
+    <t>(7) Analistas 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Líder 15% </t>
+  </si>
+  <si>
+    <t>(1) Gerente 10%</t>
+  </si>
+  <si>
+    <t>Por Puesto</t>
+  </si>
+  <si>
+    <t>Por Integrante</t>
+  </si>
+  <si>
+    <t>Diseño y Soporte</t>
+  </si>
+  <si>
+    <t>Total 40%</t>
+  </si>
+  <si>
+    <t>(2) Gerente 2.5%</t>
+  </si>
+  <si>
+    <t>(16) Analistas 1.75%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) Líder 3.5% </t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>Costos Totales</t>
+  </si>
+  <si>
+    <t>Ganacias</t>
+  </si>
+  <si>
+    <t>Proyectos Estipulados</t>
+  </si>
+  <si>
+    <t>Ganancia estipulada por año</t>
+  </si>
+  <si>
+    <t>Gastos Servicios</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,8 +501,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +568,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -536,161 +711,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="9" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="9" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="4"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -703,7 +976,537 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="60">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -862,22 +1665,139 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:I19" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:I20" totalsRowCount="1" headerRowDxfId="59">
   <autoFilter ref="A2:I19" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F6F1872D-62D6-465A-9EB6-D1E64C7FD1EA}" name="N ITEM" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{05A4D583-BEEA-420F-8DC9-DB385506B921}" name="DESCRIPCIÓN" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{16119888-3FB2-48ED-BB90-CB4798528804}" name="NO. DE PARTE" dataDxfId="5" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{17DCB875-5E51-4C91-B16E-78560646B0A5}" name="PRECIO UNITARIO" dataDxfId="4" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{9504F072-2CE8-4154-ADE6-5071E962149C}" name="DESCUENTOS"/>
-    <tableColumn id="5" xr3:uid="{DAECB143-E7A2-4C29-91CB-3EBCE0FFA4CA}" name="SUBTOTAL" dataDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="10" xr3:uid="{B913AF07-4667-4467-8BAC-58B0321E83ED}" name="TOTAL" dataDxfId="2" dataCellStyle="Moneda">
+    <tableColumn id="1" xr3:uid="{F6F1872D-62D6-465A-9EB6-D1E64C7FD1EA}" name="N ITEM" dataDxfId="58" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{05A4D583-BEEA-420F-8DC9-DB385506B921}" name="DESCRIPCIÓN" dataDxfId="57" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{16119888-3FB2-48ED-BB90-CB4798528804}" name="NO. DE PARTE" dataDxfId="56" totalsRowDxfId="6" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{17DCB875-5E51-4C91-B16E-78560646B0A5}" name="PRECIO UNITARIO" dataDxfId="55" totalsRowDxfId="5" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{9504F072-2CE8-4154-ADE6-5071E962149C}" name="DESCUENTOS" totalsRowDxfId="4" totalsRowCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{DAECB143-E7A2-4C29-91CB-3EBCE0FFA4CA}" name="SUBTOTAL" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="3" dataCellStyle="Moneda" totalsRowCellStyle="Moneda">
+      <totalsRowFormula>SUM(Tabla1[SUBTOTAL])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{B913AF07-4667-4467-8BAC-58B0321E83ED}" name="TOTAL" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="2" dataCellStyle="Moneda" totalsRowCellStyle="Moneda">
       <calculatedColumnFormula>(C3*D3)*(100/100)</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabla1[TOTAL])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1ADA9541-18CA-4B01-BDAC-D6008F0FAA29}" name="Dolares" dataDxfId="1" dataCellStyle="Moneda">
-      <calculatedColumnFormula>G3/Hoja1!$F2</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{1ADA9541-18CA-4B01-BDAC-D6008F0FAA29}" name="Dolares" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="1" dataCellStyle="Moneda" totalsRowCellStyle="Moneda">
+      <calculatedColumnFormula>G3/'Desglose Proyecto'!$F2</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tabla1[Dolares])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CDC3B595-CE04-4E68-9C64-2BFC0D49CE76}" name="LINK" dataDxfId="0" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="6" xr3:uid="{CDC3B595-CE04-4E68-9C64-2BFC0D49CE76}" name="LINK" dataDxfId="51" totalsRowDxfId="0" dataCellStyle="Hipervínculo" totalsRowCellStyle="Hipervínculo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{20919356-977F-4326-92E2-64F4B3282528}" name="Tabla5" displayName="Tabla5" ref="F22:J24" totalsRowShown="0" headerRowDxfId="50" dataDxfId="9">
+  <autoFilter ref="F22:J24" xr:uid="{20919356-977F-4326-92E2-64F4B3282528}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{12BB4967-A0EC-47C2-94CF-ABDED50BB184}" name="Concepto" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{DE254E74-6A62-4711-8ECF-6A8E9062A0DD}" name="(2) Líder 3.5% " dataDxfId="13">
+      <calculatedColumnFormula>G22*2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{43D2DA0D-5082-446E-B80E-7FFF41AAEA17}" name="(2) Gerente 2.5%" dataDxfId="12">
+      <calculatedColumnFormula>H22*2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{849742BC-6BF7-43C1-B500-6C257DCC51C1}" name="(16) Analistas 1.75%" dataDxfId="11">
+      <calculatedColumnFormula>I22*16</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{8E75BFFB-DEEC-49BB-9BB0-9295F8E8EB4A}" name="Total 40%" dataDxfId="10">
+      <calculatedColumnFormula>SUM(G23:I23)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{565B30D9-E551-4A10-8739-D12371AE1EA5}" name="Tabla6" displayName="Tabla6" ref="F16:J18" totalsRowShown="0" headerRowDxfId="49" dataDxfId="15">
+  <autoFilter ref="F16:J18" xr:uid="{565B30D9-E551-4A10-8739-D12371AE1EA5}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AFE10B96-5E2C-495F-9A49-14562A496440}" name="Concepto" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{0913AC21-B82A-4B29-8C21-4A10C44B4EF1}" name="(1) Líder 15% " dataDxfId="19">
+      <calculatedColumnFormula>G16*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{048391CB-0150-484A-B3AE-848C7C4B73FA}" name="(1) Gerente 10%" dataDxfId="18">
+      <calculatedColumnFormula>H16*1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A02D041D-61B3-4AD6-9D1B-7E9A3DD06E3C}" name="(7) Analistas 5%" dataDxfId="17">
+      <calculatedColumnFormula>I16*7</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1A230BE7-51B6-483D-AA7E-EB13A625B930}" name="Total 60%" dataDxfId="16">
+      <calculatedColumnFormula>SUM(G17:I17)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4CA8EAD0-2443-4824-A121-015CC47BE345}" name="Tabla8" displayName="Tabla8" ref="F9:H12" totalsRowShown="0" headerRowDxfId="48" dataDxfId="21">
+  <autoFilter ref="F9:H12" xr:uid="{4CA8EAD0-2443-4824-A121-015CC47BE345}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D96B10B6-AE69-4E95-984A-E03481C883EB}" name="Área" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{3CFD502B-0E1B-4EB7-985F-47BC0F13980E}" name="Monto" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{63E7BF9B-C40C-4485-954B-B16D5369E209}" name="Porcentaje" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C39A26C5-F960-4632-835A-B9C0268D283E}" name="Tabla9" displayName="Tabla9" ref="A2:C8" totalsRowShown="0" headerRowDxfId="47" dataDxfId="40" tableBorderDxfId="46">
+  <autoFilter ref="A2:C8" xr:uid="{C39A26C5-F960-4632-835A-B9C0268D283E}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ABFCA3A7-240A-4330-9203-C31ABD7D3E14}" name="Concepto" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{32216176-E28D-4E81-AA9F-10B53CFC3523}" name="Pesos" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{9E310222-60BE-42CD-8E45-256965DF90C1}" name="Dolares" dataDxfId="41"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5B986B9D-F4ED-4020-9784-E06831A258B1}" name="Tabla10" displayName="Tabla10" ref="F2:K6" totalsRowShown="0" headerRowDxfId="45" dataDxfId="25" tableBorderDxfId="44">
+  <autoFilter ref="F2:K6" xr:uid="{5B986B9D-F4ED-4020-9784-E06831A258B1}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5C653465-B6BA-4AC8-B709-ACD1B9A6BE73}" name="Puesto" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{A62DF563-54CB-4ACC-9883-D1994542B957}" name="Trabajadores" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{2F82C254-A799-4EA3-8CFA-E04AE1011172}" name="Pago Neto" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{D928B40D-8F1A-4FB7-8702-50703EAFD732}" name="Total Neto" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{DC0DCA79-930F-418D-BA60-A35E49833608}" name="Pago Bruto" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{9646910A-9D30-4F52-9350-34C6FC4C9CA0}" name="Total Bruto" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{678E9C3D-ADDF-4AEC-8491-6B1C9902F59B}" name="Tabla11" displayName="Tabla11" ref="A12:D13" totalsRowShown="0" dataDxfId="35">
+  <autoFilter ref="A12:D13" xr:uid="{678E9C3D-ADDF-4AEC-8491-6B1C9902F59B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0BFDCA61-F49D-40A0-BD3C-0CFCE3B44A55}" name="Ganancia por proyecto" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{127716A6-6B3E-4808-B776-B55C12097061}" name="Ganancia Utilidades " dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{8DEE9201-C992-420B-9166-DA6B0FD7984B}" name="Ganancia primer proyecto" dataDxfId="37">
+      <calculatedColumnFormula>B7*A13</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{CB44B8CB-D122-449A-861B-08BA6FCCA54A}" name="Utilidades" dataDxfId="36">
+      <calculatedColumnFormula>B7*B13</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AEB69035-324E-4B37-9D80-CD98D2CAB70D}" name="Tabla12" displayName="Tabla12" ref="A17:B18" totalsRowShown="0" dataDxfId="32">
+  <autoFilter ref="A17:B18" xr:uid="{AEB69035-324E-4B37-9D80-CD98D2CAB70D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{28DA4F60-7519-4F1A-841F-FE3065D96144}" name="Proyectos estipulados por año" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{5BBEAA27-3607-4F9B-8548-F3B929D1D3E6}" name="Ganancia estipulada por año" dataDxfId="33">
+      <calculatedColumnFormula>C13*A18</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1091,7 +2011,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1108,17 +2028,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1133,17 +2053,17 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>40</v>
+      <c r="H2" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -1153,31 +2073,31 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>15</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="28">
         <v>8969</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="12">
         <v>15</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="29">
         <f t="shared" ref="F3:F19" si="0">C3*D3</f>
         <v>134535</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="10">
         <f t="shared" ref="G3:G19" si="1">(C3*D3)*(100/100)</f>
         <v>134535</v>
       </c>
-      <c r="H3" s="14">
-        <f>G3/Hoja1!F2</f>
+      <c r="H3" s="10">
+        <f>G3/'Desglose Proyecto'!F2</f>
         <v>7705.3264604810993</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1185,31 +2105,31 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="28">
         <v>11310</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
         <v>5</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="29">
         <f t="shared" si="0"/>
         <v>56550</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="10">
         <f t="shared" si="1"/>
         <v>56550</v>
       </c>
-      <c r="H4" s="14">
-        <f>G4/Hoja1!F2</f>
+      <c r="H4" s="10">
+        <f>G4/'Desglose Proyecto'!F2</f>
         <v>3238.8316151202748</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1217,61 +2137,61 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="29">
         <v>30000</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="29">
         <f t="shared" si="0"/>
         <v>90000</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
-      <c r="H5" s="14">
-        <f>G5/Hoja1!F2</f>
+      <c r="H5" s="10">
+        <f>G5/'Desglose Proyecto'!F2</f>
         <v>5154.6391752577319</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>9</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="29">
         <v>1149</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>10</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="29">
         <f t="shared" si="0"/>
         <v>10341</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <f t="shared" si="1"/>
         <v>10341</v>
       </c>
-      <c r="H6" s="14">
-        <f>G6/Hoja1!F2</f>
+      <c r="H6" s="10">
+        <f>G6/'Desglose Proyecto'!F2</f>
         <v>592.26804123711338</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1279,31 +2199,31 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="29">
         <v>152.28</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="12">
         <v>0</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="29">
         <f t="shared" si="0"/>
         <v>761.4</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
         <v>761.4</v>
       </c>
-      <c r="H7" s="14">
-        <f>G7/Hoja1!F2</f>
+      <c r="H7" s="10">
+        <f>G7/'Desglose Proyecto'!F2</f>
         <v>43.608247422680407</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1311,61 +2231,61 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>120</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="29">
         <v>500</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <v>0</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="29">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="H8" s="14">
-        <f>G8/Hoja1!F2</f>
+      <c r="H8" s="10">
+        <f>G8/'Desglose Proyecto'!F2</f>
         <v>3436.4261168384878</v>
       </c>
-      <c r="I8" s="8"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>15</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="29">
         <v>2034.933</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="13">
         <v>0</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="29">
         <f t="shared" si="0"/>
         <v>30523.994999999999</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <f t="shared" si="1"/>
         <v>30523.994999999999</v>
       </c>
-      <c r="H9" s="14">
-        <f>G9/Hoja1!F2</f>
+      <c r="H9" s="10">
+        <f>G9/'Desglose Proyecto'!F2</f>
         <v>1748.2242268041236</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1373,31 +2293,31 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="9">
         <v>15</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="10">
         <v>1939.4</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <v>0</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="29">
         <f t="shared" si="0"/>
         <v>29091</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <f t="shared" si="1"/>
         <v>29091</v>
       </c>
-      <c r="H10" s="14">
-        <f>G10/Hoja1!F2</f>
+      <c r="H10" s="10">
+        <f>G10/'Desglose Proyecto'!F2</f>
         <v>1666.1512027491408</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1405,31 +2325,31 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="9">
         <v>15</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="10">
         <v>1945.93</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="13">
         <v>0</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="29">
         <f t="shared" si="0"/>
         <v>29188.95</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <f t="shared" si="1"/>
         <v>29188.95</v>
       </c>
-      <c r="H11" s="14">
-        <f>G11/Hoja1!F2</f>
+      <c r="H11" s="10">
+        <f>G11/'Desglose Proyecto'!F2</f>
         <v>1671.7611683848797</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1437,31 +2357,31 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="9">
         <v>15</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <v>2141.3330000000001</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="13">
         <v>0</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="29">
         <f t="shared" si="0"/>
         <v>32119.995000000003</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="10">
         <f t="shared" si="1"/>
         <v>32119.995000000003</v>
       </c>
-      <c r="H12" s="14">
-        <f>G12/Hoja1!F2</f>
+      <c r="H12" s="10">
+        <f>G12/'Desglose Proyecto'!F2</f>
         <v>1839.6331615120275</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1469,31 +2389,31 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="B13" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="9">
         <v>4</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="10">
         <v>21834.65</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="13">
         <v>0</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="29">
         <f t="shared" si="0"/>
         <v>87338.6</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <f t="shared" si="1"/>
         <v>87338.6</v>
       </c>
-      <c r="H13" s="14">
-        <f>G13/Hoja1!F2</f>
+      <c r="H13" s="10">
+        <f>G13/'Desglose Proyecto'!F2</f>
         <v>5002.2107674684994</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1501,32 +2421,32 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="10">
         <f>1312.51*2</f>
         <v>2625.02</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="13">
         <v>0</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="29">
         <f t="shared" si="0"/>
         <v>2625.02</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="29">
         <f t="shared" si="1"/>
         <v>2625.02</v>
       </c>
-      <c r="H14" s="14">
-        <f>G14/Hoja1!F2</f>
+      <c r="H14" s="10">
+        <f>G14/'Desglose Proyecto'!F2</f>
         <v>150.34478808705612</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1534,32 +2454,32 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="29">
         <f>2*826.18</f>
         <v>1652.36</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <v>0</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="29">
         <f t="shared" si="0"/>
         <v>1652.36</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="29">
         <f t="shared" si="1"/>
         <v>1652.36</v>
       </c>
-      <c r="H15" s="14">
-        <f>G15/Hoja1!F2</f>
+      <c r="H15" s="10">
+        <f>G15/'Desglose Proyecto'!F2</f>
         <v>94.636884306987383</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1567,32 +2487,32 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>1</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="10">
         <f>294.35 * 2</f>
         <v>588.70000000000005</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="13">
         <v>0</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="29">
         <f t="shared" si="0"/>
         <v>588.70000000000005</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="29">
         <f t="shared" si="1"/>
         <v>588.70000000000005</v>
       </c>
-      <c r="H16" s="14">
-        <f>G16/Hoja1!F2</f>
+      <c r="H16" s="10">
+        <f>G16/'Desglose Proyecto'!F2</f>
         <v>33.717067583046962</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1600,32 +2520,32 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>1</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="10">
         <f>464.99*2</f>
         <v>929.98</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="13">
         <v>0</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="29">
         <f t="shared" si="0"/>
         <v>929.98</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="29">
         <f t="shared" si="1"/>
         <v>929.98</v>
       </c>
-      <c r="H17" s="14">
-        <f>G17/Hoja1!F2</f>
+      <c r="H17" s="10">
+        <f>G17/'Desglose Proyecto'!F2</f>
         <v>53.263459335624283</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1633,72 +2553,81 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="9">
         <v>4</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="10">
         <v>15000</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="13">
         <v>0</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="29">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="10">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
-      <c r="H18" s="14">
-        <f>G18/Hoja1!F2</f>
+      <c r="H18" s="10">
+        <f>G18/'Desglose Proyecto'!F2</f>
         <v>3436.4261168384878</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="9">
         <v>4</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="10">
         <v>30000</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="13">
         <v>0</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="29">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="10">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H19" s="14">
-        <f>G19/Hoja1!F2</f>
+      <c r="H19" s="10">
+        <f>G19/'Desglose Proyecto'!F2</f>
         <v>6872.8522336769756</v>
       </c>
-      <c r="I19" s="8"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="8"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="74">
+        <f>SUM(Tabla1[SUBTOTAL])</f>
+        <v>746246</v>
+      </c>
+      <c r="G20" s="74">
+        <f>SUM(Tabla1[TOTAL])</f>
+        <v>746246</v>
+      </c>
+      <c r="H20" s="74">
+        <f>SUM(Tabla1[Dolares])</f>
+        <v>42740.320733104229</v>
+      </c>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -1716,44 +2645,44 @@
       <c r="F47" s="2"/>
     </row>
     <row r="51" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1780,11 +2709,526 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E75C39-66EA-4A17-8ADF-0AEB6775E1C4}">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="F1" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="63">
+        <f>SUM(Cotización!G8:G19)</f>
+        <v>454058.60000000003</v>
+      </c>
+      <c r="C3" s="63">
+        <f>SUM(Cotización!H8:H19)</f>
+        <v>26005.647193585337</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="62">
+        <v>3</v>
+      </c>
+      <c r="H3" s="63">
+        <v>30000</v>
+      </c>
+      <c r="I3" s="63">
+        <f>H3*G3</f>
+        <v>90000</v>
+      </c>
+      <c r="J3" s="63">
+        <f>H3*1.33</f>
+        <v>39900</v>
+      </c>
+      <c r="K3" s="63">
+        <f>J3*G3</f>
+        <v>119700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="65">
+        <f>SUM(Cotización!G3:G7)</f>
+        <v>292187.40000000002</v>
+      </c>
+      <c r="C4" s="65">
+        <f>SUM(Cotización!H3:H7)</f>
+        <v>16734.673539518895</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="64">
+        <v>3</v>
+      </c>
+      <c r="H4" s="65">
+        <v>20000</v>
+      </c>
+      <c r="I4" s="65">
+        <f>H4*G4</f>
+        <v>60000</v>
+      </c>
+      <c r="J4" s="65">
+        <f t="shared" ref="J4" si="0">H4*1.33</f>
+        <v>26600</v>
+      </c>
+      <c r="K4" s="65">
+        <f>J4*G4</f>
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="63">
+        <f>K6</f>
+        <v>658350</v>
+      </c>
+      <c r="C5" s="63">
+        <f>B5/'Desglose Proyecto'!F2</f>
+        <v>37706.18556701031</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="62">
+        <v>23</v>
+      </c>
+      <c r="H5" s="63">
+        <v>15000</v>
+      </c>
+      <c r="I5" s="63">
+        <f>H5*G5</f>
+        <v>345000</v>
+      </c>
+      <c r="J5" s="63">
+        <f>H5*1.33</f>
+        <v>19950</v>
+      </c>
+      <c r="K5" s="63">
+        <f>J5*G5</f>
+        <v>458850</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="67">
+        <v>180000</v>
+      </c>
+      <c r="C6" s="67">
+        <f>B6/'Desglose Proyecto'!F2</f>
+        <v>10309.278350515464</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="F6" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65">
+        <f>SUM(H3:H5)</f>
+        <v>65000</v>
+      </c>
+      <c r="I6" s="65">
+        <f>SUM(I3:I5)</f>
+        <v>495000</v>
+      </c>
+      <c r="J6" s="65">
+        <f>SUM(J3:J5)</f>
+        <v>86450</v>
+      </c>
+      <c r="K6" s="65">
+        <f>SUM(K3:K5)</f>
+        <v>658350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="65">
+        <f>SUM(B3:B6)</f>
+        <v>1584596</v>
+      </c>
+      <c r="C7" s="65">
+        <f>SUM(C3:C6)</f>
+        <v>90755.784650630012</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="67">
+        <f>B7*1.13</f>
+        <v>1790593.4799999997</v>
+      </c>
+      <c r="C8" s="67">
+        <f>B8/'Desglose Proyecto'!F2</f>
+        <v>102554.03665521189</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:13" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="F9" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="F10" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="69">
+        <f>D13*H10</f>
+        <v>47537.88</v>
+      </c>
+      <c r="H10" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="M10" s="40"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="F11" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="69">
+        <f>D13*H11</f>
+        <v>31691.920000000002</v>
+      </c>
+      <c r="H11" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" spans="1:13" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="69">
+        <f ca="1">SUM(G10:G12)</f>
+        <v>79229.8</v>
+      </c>
+      <c r="H12" s="68">
+        <f>SUM(H10:H11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="68">
+        <v>0.08</v>
+      </c>
+      <c r="B13" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="69">
+        <f>B7*A13</f>
+        <v>126767.68000000001</v>
+      </c>
+      <c r="D13" s="69">
+        <f>B7*B13</f>
+        <v>79229.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40"/>
+      <c r="D14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="40"/>
+      <c r="F15" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="F16" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="69">
+        <f>D13*0.15</f>
+        <v>11884.47</v>
+      </c>
+      <c r="H17" s="69">
+        <f>D13*0.1</f>
+        <v>7922.9800000000005</v>
+      </c>
+      <c r="I17" s="69">
+        <f>D13*0.05</f>
+        <v>3961.4900000000002</v>
+      </c>
+      <c r="J17" s="69">
+        <f>(G17*1)+(H17*1)+(I17*7)</f>
+        <v>47537.880000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="70">
+        <v>12</v>
+      </c>
+      <c r="B18" s="69">
+        <f>C13*A18</f>
+        <v>1521212.1600000001</v>
+      </c>
+      <c r="F18" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="69">
+        <f>G17*1</f>
+        <v>11884.47</v>
+      </c>
+      <c r="H18" s="69">
+        <f>H17*1</f>
+        <v>7922.9800000000005</v>
+      </c>
+      <c r="I18" s="72">
+        <f>I17*7</f>
+        <v>27730.43</v>
+      </c>
+      <c r="J18" s="69">
+        <f>SUM(G18:I18)</f>
+        <v>47537.880000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="F23" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="69">
+        <f>D13*0.035</f>
+        <v>2773.0430000000006</v>
+      </c>
+      <c r="H23" s="69">
+        <f>D13*0.025</f>
+        <v>1980.7450000000001</v>
+      </c>
+      <c r="I23" s="72">
+        <f>D13*0.0175</f>
+        <v>1386.5215000000003</v>
+      </c>
+      <c r="J23" s="69">
+        <f>(G23*2)+(H23*2)+(I23*16)</f>
+        <v>31691.920000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="69">
+        <f>G23*2</f>
+        <v>5546.0860000000011</v>
+      </c>
+      <c r="H24" s="69">
+        <f>H23*2</f>
+        <v>3961.4900000000002</v>
+      </c>
+      <c r="I24" s="72">
+        <f>I23*16</f>
+        <v>22184.344000000005</v>
+      </c>
+      <c r="J24" s="69">
+        <f>SUM(G24:I24)</f>
+        <v>31691.920000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="7">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DA5CF6-1881-4FFE-91A5-A2EC9A454F01}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:J20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1799,433 +3243,507 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="53">
+        <v>45061</v>
+      </c>
+      <c r="F1" s="53"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="27">
+        <v>17.46</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="25">
+        <f>Ganancias!B8</f>
+        <v>1790593.4799999997</v>
+      </c>
+      <c r="C3" s="26">
+        <f>Ganancias!C8</f>
+        <v>102554.03665521189</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="H4" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="E6" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="16">
+        <f>B3*1.25</f>
+        <v>2238241.8499999996</v>
+      </c>
+      <c r="C8" s="30">
+        <f>B8/F2</f>
+        <v>128192.54581901486</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="16">
+        <f>B8*2*1.25</f>
+        <v>5595604.6249999991</v>
+      </c>
+      <c r="C9" s="16">
+        <f>B9/F2</f>
+        <v>320481.36454753717</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="16">
+        <f>B9-B8</f>
+        <v>3357362.7749999994</v>
+      </c>
+      <c r="C10" s="16">
+        <f>B10/F2</f>
+        <v>192288.81872852228</v>
+      </c>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="48">
-        <v>45061</v>
-      </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B11" s="16">
+        <f>B10/30</f>
+        <v>111912.09249999998</v>
+      </c>
+      <c r="C11" s="16">
+        <f>B11/F2</f>
+        <v>6409.6272909507434</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="16">
+        <f>B11*0.3</f>
+        <v>33573.627749999992</v>
+      </c>
+      <c r="C12" s="16">
+        <f>B12/F2</f>
+        <v>1922.8881872852228</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="16">
+        <f>B11-B12</f>
+        <v>78338.464749999985</v>
+      </c>
+      <c r="C13" s="16">
+        <f>B13/F2</f>
+        <v>4486.7391036655199</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="32">
-        <v>17.46</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="C16" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="16">
+        <f>B22*0.25</f>
+        <v>1398901.1562499998</v>
+      </c>
+      <c r="C17" s="16">
+        <f>C22*0.25</f>
+        <v>80120.341136884294</v>
+      </c>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="30">
-        <f>SUM(Tabla1[TOTAL])</f>
-        <v>746246</v>
-      </c>
-      <c r="C3" s="31">
-        <f>SUM(Tabla1[Dolares])</f>
-        <v>42740.320733104229</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="18" t="s">
+      <c r="B18" s="16">
+        <f>B22*0.3</f>
+        <v>1678681.3874999997</v>
+      </c>
+      <c r="C18" s="16">
+        <f>C22*0.3</f>
+        <v>96144.409364261155</v>
+      </c>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="16">
+        <f>B22*0.4</f>
+        <v>2238241.8499999996</v>
+      </c>
+      <c r="C19" s="16">
+        <f>C22*0.4</f>
+        <v>128192.54581901488</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="16">
+        <f>B22*0.25</f>
+        <v>1398901.1562499998</v>
+      </c>
+      <c r="C20" s="16">
+        <f>C22*0.025</f>
+        <v>8012.0341136884299</v>
+      </c>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="16">
+        <f>B22*0.25</f>
+        <v>1398901.1562499998</v>
+      </c>
+      <c r="C21" s="16">
+        <f>C22*0.025</f>
+        <v>8012.0341136884299</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="16">
+        <f>B9</f>
+        <v>5595604.6249999991</v>
+      </c>
+      <c r="C22" s="16">
+        <f>C9</f>
+        <v>320481.36454753717</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="H4" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-    </row>
-    <row r="7" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2.25</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="21">
-        <f>B3*1.25</f>
-        <v>932807.5</v>
-      </c>
-      <c r="C11" s="35">
-        <f>B11/F2</f>
-        <v>53425.400916380298</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="21">
-        <f>B11*2*1.25</f>
-        <v>2332018.75</v>
-      </c>
-      <c r="C12" s="21">
-        <f>B12/F2</f>
-        <v>133563.50229095074</v>
-      </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="21">
-        <f>B12-B11</f>
-        <v>1399211.25</v>
-      </c>
-      <c r="C13" s="21">
-        <f>B13/F2</f>
-        <v>80138.10137457044</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="21">
-        <f>B13/30</f>
-        <v>46640.375</v>
-      </c>
-      <c r="C14" s="21">
-        <f>B14/F2</f>
-        <v>2671.2700458190147</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="21">
-        <f>B14*0.3</f>
-        <v>13992.112499999999</v>
-      </c>
-      <c r="C15" s="21">
-        <f>B15/F2</f>
-        <v>801.38101374570442</v>
-      </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="21">
-        <f>B14-B15</f>
-        <v>32648.262500000001</v>
-      </c>
-      <c r="C16" s="21">
-        <f>B16/F2</f>
-        <v>1869.8890320733103</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="21">
-        <f>B25*0.25</f>
-        <v>583004.6875</v>
-      </c>
-      <c r="C20" s="21">
-        <f>C25*0.25</f>
-        <v>33390.875572737685</v>
-      </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="21">
-        <f>B25*0.3</f>
-        <v>699605.625</v>
-      </c>
-      <c r="C21" s="21">
-        <f>C25*0.3</f>
-        <v>40069.05068728522</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="21">
-        <f>B25*0.4</f>
-        <v>932807.5</v>
-      </c>
-      <c r="C22" s="21">
-        <f>C25*0.4</f>
-        <v>53425.400916380298</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-    </row>
-    <row r="23" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="21">
-        <f>B25*0.25</f>
-        <v>583004.6875</v>
-      </c>
-      <c r="C23" s="21">
-        <f>C25*0.025</f>
-        <v>3339.0875572737687</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-    </row>
-    <row r="24" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="21">
-        <f>B25*0.25</f>
-        <v>583004.6875</v>
-      </c>
-      <c r="C24" s="21">
-        <f>C25*0.025</f>
-        <v>3339.0875572737687</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-    </row>
-    <row r="25" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="21">
-        <f>B12</f>
-        <v>2332018.75</v>
-      </c>
-      <c r="C25" s="21">
-        <f>C12</f>
-        <v>133563.50229095074</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-    </row>
-    <row r="26" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G29" s="38"/>
-      <c r="H29" s="20"/>
-    </row>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="79">
+        <v>0.25</v>
+      </c>
+      <c r="B26" s="81">
+        <f>B3*A26</f>
+        <v>447648.36999999994</v>
+      </c>
+      <c r="C26" s="81">
+        <f>C3*A26</f>
+        <v>25638.509163802973</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="79">
+        <v>0.3</v>
+      </c>
+      <c r="B27" s="81">
+        <f>B3*A27</f>
+        <v>537178.04399999988</v>
+      </c>
+      <c r="C27" s="81">
+        <f>C3*A27</f>
+        <v>30766.210996563568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="79">
+        <v>0.4</v>
+      </c>
+      <c r="B28" s="81">
+        <f>B3*A28</f>
+        <v>716237.39199999999</v>
+      </c>
+      <c r="C28" s="81">
+        <f>C3*A28</f>
+        <v>41021.614662084758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="80">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B29" s="81">
+        <f>B3*A29</f>
+        <v>44764.837</v>
+      </c>
+      <c r="C29" s="81">
+        <f>C3*A29</f>
+        <v>2563.8509163802973</v>
+      </c>
+      <c r="G29" s="33"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="80">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="B30" s="81">
+        <f>B3*A30</f>
+        <v>44764.837</v>
+      </c>
+      <c r="C30" s="81">
+        <f>C3*A30</f>
+        <v>2563.8509163802973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="79">
+        <v>1</v>
+      </c>
+      <c r="B31" s="81">
+        <f>SUM(B26:B30)</f>
+        <v>1790593.48</v>
+      </c>
+      <c r="C31" s="81">
+        <f>SUM(C26:C30)</f>
+        <v>102554.03665521189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="E21:J24"/>
@@ -2233,9 +3751,9 @@
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
+++ b/Ventas/Propuesta Económica/Prupuesta Económica V5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AntirShadow\Documents\GitHub\ProyectoRedes\Ventas\Propuesta Económica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\AntirShadow\Documents\GitHub\ProyectoRedes\Ventas\Propuesta Económica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D558AD85-2BF6-4A1D-A4B9-73ECB5C9C6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BC313E-E3BA-4F76-B3AE-A259A27FDA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cotización" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
   <si>
     <t>PROPUESTA ECONÓMICA</t>
   </si>
@@ -357,6 +357,15 @@
   </si>
   <si>
     <t>Gastos Servicios</t>
+  </si>
+  <si>
+    <t>Pago de contado</t>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Pago por hitos más 5%</t>
   </si>
 </sst>
 </file>
@@ -364,8 +373,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
@@ -744,7 +753,7 @@
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -778,7 +787,7 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -791,8 +800,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,20 +824,20 @@
     <xf numFmtId="165" fontId="14" fillId="9" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="16" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -856,54 +865,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -939,18 +900,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="9" fontId="14" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
@@ -959,11 +908,71 @@
     <xf numFmtId="10" fontId="14" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="8" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -976,7 +985,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="62">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -996,7 +1011,6 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1015,7 +1029,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1034,7 +1048,6 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1072,7 +1085,6 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1117,15 +1129,75 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1135,145 +1207,16 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="0"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1390,6 +1333,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1413,43 +1359,18 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1468,6 +1389,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1489,6 +1447,10 @@
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1506,6 +1468,56 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1526,7 +1538,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1545,7 +1557,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1564,7 +1576,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1583,7 +1595,7 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1665,46 +1677,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:I20" totalsRowCount="1" headerRowDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}" name="Tabla1" displayName="Tabla1" ref="A2:I20" totalsRowCount="1" headerRowDxfId="61">
   <autoFilter ref="A2:I19" xr:uid="{260CAE73-387D-4728-94B4-6CA7A8B0F168}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F6F1872D-62D6-465A-9EB6-D1E64C7FD1EA}" name="N ITEM" dataDxfId="58" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{05A4D583-BEEA-420F-8DC9-DB385506B921}" name="DESCRIPCIÓN" dataDxfId="57" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{16119888-3FB2-48ED-BB90-CB4798528804}" name="NO. DE PARTE" dataDxfId="56" totalsRowDxfId="6" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{17DCB875-5E51-4C91-B16E-78560646B0A5}" name="PRECIO UNITARIO" dataDxfId="55" totalsRowDxfId="5" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{9504F072-2CE8-4154-ADE6-5071E962149C}" name="DESCUENTOS" totalsRowDxfId="4" totalsRowCellStyle="Porcentaje"/>
-    <tableColumn id="5" xr3:uid="{DAECB143-E7A2-4C29-91CB-3EBCE0FFA4CA}" name="SUBTOTAL" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="3" dataCellStyle="Moneda" totalsRowCellStyle="Moneda">
+    <tableColumn id="1" xr3:uid="{F6F1872D-62D6-465A-9EB6-D1E64C7FD1EA}" name="N ITEM" dataDxfId="60" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{05A4D583-BEEA-420F-8DC9-DB385506B921}" name="DESCRIPCIÓN" dataDxfId="59" totalsRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{16119888-3FB2-48ED-BB90-CB4798528804}" name="NO. DE PARTE" dataDxfId="58" totalsRowDxfId="8" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{17DCB875-5E51-4C91-B16E-78560646B0A5}" name="PRECIO UNITARIO" dataDxfId="57" totalsRowDxfId="7" dataCellStyle="Moneda" totalsRowCellStyle="Moneda"/>
+    <tableColumn id="8" xr3:uid="{9504F072-2CE8-4154-ADE6-5071E962149C}" name="DESCUENTOS" totalsRowDxfId="6" totalsRowCellStyle="Porcentaje"/>
+    <tableColumn id="5" xr3:uid="{DAECB143-E7A2-4C29-91CB-3EBCE0FFA4CA}" name="SUBTOTAL" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="5" dataCellStyle="Moneda" totalsRowCellStyle="Moneda">
       <totalsRowFormula>SUM(Tabla1[SUBTOTAL])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B913AF07-4667-4467-8BAC-58B0321E83ED}" name="TOTAL" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="2" dataCellStyle="Moneda" totalsRowCellStyle="Moneda">
+    <tableColumn id="10" xr3:uid="{B913AF07-4667-4467-8BAC-58B0321E83ED}" name="TOTAL" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="4" dataCellStyle="Moneda">
       <calculatedColumnFormula>(C3*D3)*(100/100)</calculatedColumnFormula>
-      <totalsRowFormula>SUM(Tabla1[TOTAL])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1ADA9541-18CA-4B01-BDAC-D6008F0FAA29}" name="Dolares" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="1" dataCellStyle="Moneda" totalsRowCellStyle="Moneda">
+    <tableColumn id="9" xr3:uid="{1ADA9541-18CA-4B01-BDAC-D6008F0FAA29}" name="Dolares" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="3" dataCellStyle="Moneda" totalsRowCellStyle="Moneda">
       <calculatedColumnFormula>G3/'Desglose Proyecto'!$F2</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tabla1[Dolares])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{CDC3B595-CE04-4E68-9C64-2BFC0D49CE76}" name="LINK" dataDxfId="51" totalsRowDxfId="0" dataCellStyle="Hipervínculo" totalsRowCellStyle="Hipervínculo"/>
+    <tableColumn id="6" xr3:uid="{CDC3B595-CE04-4E68-9C64-2BFC0D49CE76}" name="LINK" dataDxfId="53" totalsRowDxfId="2" dataCellStyle="Hipervínculo" totalsRowCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{20919356-977F-4326-92E2-64F4B3282528}" name="Tabla5" displayName="Tabla5" ref="F22:J24" totalsRowShown="0" headerRowDxfId="50" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{20919356-977F-4326-92E2-64F4B3282528}" name="Tabla5" displayName="Tabla5" ref="F22:J24" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="F22:J24" xr:uid="{20919356-977F-4326-92E2-64F4B3282528}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{12BB4967-A0EC-47C2-94CF-ABDED50BB184}" name="Concepto" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{DE254E74-6A62-4711-8ECF-6A8E9062A0DD}" name="(2) Líder 3.5% " dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{12BB4967-A0EC-47C2-94CF-ABDED50BB184}" name="Concepto" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{DE254E74-6A62-4711-8ECF-6A8E9062A0DD}" name="(2) Líder 3.5% " dataDxfId="49">
       <calculatedColumnFormula>G22*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{43D2DA0D-5082-446E-B80E-7FFF41AAEA17}" name="(2) Gerente 2.5%" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{43D2DA0D-5082-446E-B80E-7FFF41AAEA17}" name="(2) Gerente 2.5%" dataDxfId="48">
       <calculatedColumnFormula>H22*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{849742BC-6BF7-43C1-B500-6C257DCC51C1}" name="(16) Analistas 1.75%" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{849742BC-6BF7-43C1-B500-6C257DCC51C1}" name="(16) Analistas 1.75%" dataDxfId="47">
       <calculatedColumnFormula>I22*16</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8E75BFFB-DEEC-49BB-9BB0-9295F8E8EB4A}" name="Total 40%" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{8E75BFFB-DEEC-49BB-9BB0-9295F8E8EB4A}" name="Total 40%" dataDxfId="46">
       <calculatedColumnFormula>SUM(G23:I23)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1713,20 +1724,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{565B30D9-E551-4A10-8739-D12371AE1EA5}" name="Tabla6" displayName="Tabla6" ref="F16:J18" totalsRowShown="0" headerRowDxfId="49" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{565B30D9-E551-4A10-8739-D12371AE1EA5}" name="Tabla6" displayName="Tabla6" ref="F16:J18" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="F16:J18" xr:uid="{565B30D9-E551-4A10-8739-D12371AE1EA5}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AFE10B96-5E2C-495F-9A49-14562A496440}" name="Concepto" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{0913AC21-B82A-4B29-8C21-4A10C44B4EF1}" name="(1) Líder 15% " dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{AFE10B96-5E2C-495F-9A49-14562A496440}" name="Concepto" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{0913AC21-B82A-4B29-8C21-4A10C44B4EF1}" name="(1) Líder 15% " dataDxfId="42">
       <calculatedColumnFormula>G16*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{048391CB-0150-484A-B3AE-848C7C4B73FA}" name="(1) Gerente 10%" dataDxfId="18">
+    <tableColumn id="3" xr3:uid="{048391CB-0150-484A-B3AE-848C7C4B73FA}" name="(1) Gerente 10%" dataDxfId="41">
       <calculatedColumnFormula>H16*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A02D041D-61B3-4AD6-9D1B-7E9A3DD06E3C}" name="(7) Analistas 5%" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{A02D041D-61B3-4AD6-9D1B-7E9A3DD06E3C}" name="(7) Analistas 5%" dataDxfId="40">
       <calculatedColumnFormula>I16*7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1A230BE7-51B6-483D-AA7E-EB13A625B930}" name="Total 60%" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{1A230BE7-51B6-483D-AA7E-EB13A625B930}" name="Total 60%" dataDxfId="39">
       <calculatedColumnFormula>SUM(G17:I17)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1735,54 +1746,54 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4CA8EAD0-2443-4824-A121-015CC47BE345}" name="Tabla8" displayName="Tabla8" ref="F9:H12" totalsRowShown="0" headerRowDxfId="48" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4CA8EAD0-2443-4824-A121-015CC47BE345}" name="Tabla8" displayName="Tabla8" ref="F9:H12" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="F9:H12" xr:uid="{4CA8EAD0-2443-4824-A121-015CC47BE345}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D96B10B6-AE69-4E95-984A-E03481C883EB}" name="Área" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{3CFD502B-0E1B-4EB7-985F-47BC0F13980E}" name="Monto" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{63E7BF9B-C40C-4485-954B-B16D5369E209}" name="Porcentaje" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{D96B10B6-AE69-4E95-984A-E03481C883EB}" name="Área" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{3CFD502B-0E1B-4EB7-985F-47BC0F13980E}" name="Monto" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{63E7BF9B-C40C-4485-954B-B16D5369E209}" name="Porcentaje" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C39A26C5-F960-4632-835A-B9C0268D283E}" name="Tabla9" displayName="Tabla9" ref="A2:C8" totalsRowShown="0" headerRowDxfId="47" dataDxfId="40" tableBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C39A26C5-F960-4632-835A-B9C0268D283E}" name="Tabla9" displayName="Tabla9" ref="A2:C8" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A2:C8" xr:uid="{C39A26C5-F960-4632-835A-B9C0268D283E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{ABFCA3A7-240A-4330-9203-C31ABD7D3E14}" name="Concepto" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{32216176-E28D-4E81-AA9F-10B53CFC3523}" name="Pesos" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{9E310222-60BE-42CD-8E45-256965DF90C1}" name="Dolares" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{ABFCA3A7-240A-4330-9203-C31ABD7D3E14}" name="Concepto" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{32216176-E28D-4E81-AA9F-10B53CFC3523}" name="Pesos" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{9E310222-60BE-42CD-8E45-256965DF90C1}" name="Dolares" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5B986B9D-F4ED-4020-9784-E06831A258B1}" name="Tabla10" displayName="Tabla10" ref="F2:K6" totalsRowShown="0" headerRowDxfId="45" dataDxfId="25" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{5B986B9D-F4ED-4020-9784-E06831A258B1}" name="Tabla10" displayName="Tabla10" ref="F2:K6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="F2:K6" xr:uid="{5B986B9D-F4ED-4020-9784-E06831A258B1}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5C653465-B6BA-4AC8-B709-ACD1B9A6BE73}" name="Puesto" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{A62DF563-54CB-4ACC-9883-D1994542B957}" name="Trabajadores" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{2F82C254-A799-4EA3-8CFA-E04AE1011172}" name="Pago Neto" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{D928B40D-8F1A-4FB7-8702-50703EAFD732}" name="Total Neto" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{DC0DCA79-930F-418D-BA60-A35E49833608}" name="Pago Bruto" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{9646910A-9D30-4F52-9350-34C6FC4C9CA0}" name="Total Bruto" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{5C653465-B6BA-4AC8-B709-ACD1B9A6BE73}" name="Puesto" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{A62DF563-54CB-4ACC-9883-D1994542B957}" name="Trabajadores" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{2F82C254-A799-4EA3-8CFA-E04AE1011172}" name="Pago Neto" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{D928B40D-8F1A-4FB7-8702-50703EAFD732}" name="Total Neto" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{DC0DCA79-930F-418D-BA60-A35E49833608}" name="Pago Bruto" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{9646910A-9D30-4F52-9350-34C6FC4C9CA0}" name="Total Bruto" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{678E9C3D-ADDF-4AEC-8491-6B1C9902F59B}" name="Tabla11" displayName="Tabla11" ref="A12:D13" totalsRowShown="0" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{678E9C3D-ADDF-4AEC-8491-6B1C9902F59B}" name="Tabla11" displayName="Tabla11" ref="A12:D13" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="A12:D13" xr:uid="{678E9C3D-ADDF-4AEC-8491-6B1C9902F59B}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0BFDCA61-F49D-40A0-BD3C-0CFCE3B44A55}" name="Ganancia por proyecto" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{127716A6-6B3E-4808-B776-B55C12097061}" name="Ganancia Utilidades " dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{8DEE9201-C992-420B-9166-DA6B0FD7984B}" name="Ganancia primer proyecto" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{0BFDCA61-F49D-40A0-BD3C-0CFCE3B44A55}" name="Ganancia por proyecto" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{127716A6-6B3E-4808-B776-B55C12097061}" name="Ganancia Utilidades " dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{8DEE9201-C992-420B-9166-DA6B0FD7984B}" name="Ganancia primer proyecto" dataDxfId="15">
       <calculatedColumnFormula>B7*A13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CB44B8CB-D122-449A-861B-08BA6FCCA54A}" name="Utilidades" dataDxfId="36">
+    <tableColumn id="4" xr3:uid="{CB44B8CB-D122-449A-861B-08BA6FCCA54A}" name="Utilidades" dataDxfId="14">
       <calculatedColumnFormula>B7*B13</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1791,15 +1802,31 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AEB69035-324E-4B37-9D80-CD98D2CAB70D}" name="Tabla12" displayName="Tabla12" ref="A17:B18" totalsRowShown="0" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AEB69035-324E-4B37-9D80-CD98D2CAB70D}" name="Tabla12" displayName="Tabla12" ref="A17:B18" totalsRowShown="0" dataDxfId="13">
   <autoFilter ref="A17:B18" xr:uid="{AEB69035-324E-4B37-9D80-CD98D2CAB70D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{28DA4F60-7519-4F1A-841F-FE3065D96144}" name="Proyectos estipulados por año" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{5BBEAA27-3607-4F9B-8548-F3B929D1D3E6}" name="Ganancia estipulada por año" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{28DA4F60-7519-4F1A-841F-FE3065D96144}" name="Proyectos estipulados por año" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{5BBEAA27-3607-4F9B-8548-F3B929D1D3E6}" name="Ganancia estipulada por año" dataDxfId="11">
       <calculatedColumnFormula>C13*A18</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DFD7F203-5E73-4B62-B2FC-76F782727FC3}" name="Tabla2" displayName="Tabla2" ref="A20:C22" totalsRowShown="0" headerRowCellStyle="Bueno" dataCellStyle="Bueno">
+  <autoFilter ref="A20:C22" xr:uid="{DFD7F203-5E73-4B62-B2FC-76F782727FC3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F5175C70-DD95-42B7-A3C2-9FAC3CB41A69}" name="Columna1"/>
+    <tableColumn id="2" xr3:uid="{E5C3CECC-4074-4FE1-9310-5A4238CD3862}" name="Pesos" dataDxfId="1">
+      <calculatedColumnFormula>B7*1.05</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{2333B409-3353-495F-AB77-F54B72B48EB7}" name="Dólares" dataDxfId="0">
+      <calculatedColumnFormula>C7*1.05</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2011,36 +2038,36 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2069,7 +2096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2101,7 +2128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2133,7 +2160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2163,7 +2190,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2195,7 +2222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2227,7 +2254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2257,7 +2284,7 @@
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2289,7 +2316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2321,7 +2348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -2353,7 +2380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -2385,7 +2412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -2417,7 +2444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -2450,7 +2477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -2483,7 +2510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -2516,7 +2543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2549,7 +2576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2579,7 +2606,7 @@
       </c>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -2609,42 +2636,42 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
-      <c r="B20" s="73"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="74"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="74">
+      <c r="F20" s="29">
         <f>SUM(Tabla1[SUBTOTAL])</f>
         <v>746246</v>
       </c>
-      <c r="G20" s="74">
-        <f>SUM(Tabla1[TOTAL])</f>
+      <c r="G20" s="81">
+        <f>SUBTOTAL(109,Tabla1[TOTAL])</f>
         <v>746246</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="29">
         <f>SUM(Tabla1[Dolares])</f>
         <v>42740.320733104229</v>
       </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="6:6" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="6:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F47" s="2"/>
     </row>
-    <row r="51" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
@@ -2652,7 +2679,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="21"/>
     </row>
-    <row r="52" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
@@ -2660,7 +2687,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="21"/>
     </row>
-    <row r="53" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -2668,7 +2695,7 @@
       <c r="I53" s="21"/>
       <c r="J53" s="21"/>
     </row>
-    <row r="54" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
@@ -2676,7 +2703,7 @@
       <c r="I54" s="21"/>
       <c r="J54" s="21"/>
     </row>
-    <row r="55" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
@@ -2710,42 +2737,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E75C39-66EA-4A17-8ADF-0AEB6775E1C4}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="F1" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-    </row>
-    <row r="2" spans="1:13" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+    </row>
+    <row r="2" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
         <v>79</v>
       </c>
@@ -2774,151 +2801,151 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="47">
         <f>SUM(Cotización!G8:G19)</f>
         <v>454058.60000000003</v>
       </c>
-      <c r="C3" s="63">
+      <c r="C3" s="47">
         <f>SUM(Cotización!H8:H19)</f>
         <v>26005.647193585337</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="46">
         <v>3</v>
       </c>
-      <c r="H3" s="63">
+      <c r="H3" s="47">
         <v>30000</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="47">
         <f>H3*G3</f>
         <v>90000</v>
       </c>
-      <c r="J3" s="63">
+      <c r="J3" s="47">
         <f>H3*1.33</f>
         <v>39900</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="47">
         <f>J3*G3</f>
         <v>119700</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="49">
         <f>SUM(Cotización!G3:G7)</f>
         <v>292187.40000000002</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="49">
         <f>SUM(Cotización!H3:H7)</f>
         <v>16734.673539518895</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="48">
         <v>3</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="49">
         <v>20000</v>
       </c>
-      <c r="I4" s="65">
+      <c r="I4" s="49">
         <f>H4*G4</f>
         <v>60000</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="49">
         <f t="shared" ref="J4" si="0">H4*1.33</f>
         <v>26600</v>
       </c>
-      <c r="K4" s="65">
+      <c r="K4" s="49">
         <f>J4*G4</f>
         <v>79800</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="47">
         <f>K6</f>
         <v>658350</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="47">
         <f>B5/'Desglose Proyecto'!F2</f>
         <v>37706.18556701031</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="46">
         <v>23</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="47">
         <v>15000</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="47">
         <f>H5*G5</f>
         <v>345000</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="47">
         <f>H5*1.33</f>
         <v>19950</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="47">
         <f>J5*G5</f>
         <v>458850</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="51">
         <v>180000</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="51">
         <f>B6/'Desglose Proyecto'!F2</f>
         <v>10309.278350515464</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65">
+      <c r="G6" s="48"/>
+      <c r="H6" s="49">
         <f>SUM(H3:H5)</f>
         <v>65000</v>
       </c>
-      <c r="I6" s="65">
+      <c r="I6" s="49">
         <f>SUM(I3:I5)</f>
         <v>495000</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="49">
         <f>SUM(J3:J5)</f>
         <v>86450</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="49">
         <f>SUM(K3:K5)</f>
         <v>658350</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="49">
         <f>SUM(B3:B6)</f>
         <v>1584596</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="49">
         <f>SUM(C3:C6)</f>
         <v>90755.784650630012</v>
       </c>
@@ -2927,25 +2954,25 @@
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66" t="s">
+    <row r="8" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="51">
         <f>B7*1.13</f>
         <v>1790593.4799999997</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="51">
         <f>B8/'Desglose Proyecto'!F2</f>
         <v>102554.03665521189</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:13" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+    </row>
+    <row r="9" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -2959,42 +2986,42 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="69">
+      <c r="G10" s="53">
         <f>D13*H10</f>
         <v>47537.88</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="52">
         <v>0.6</v>
       </c>
       <c r="M10" s="40"/>
     </row>
-    <row r="11" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="F11" s="71" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="F11" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="53">
         <f>D13*H11</f>
         <v>31691.920000000002</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="52">
         <v>0.4</v>
       </c>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="1:13" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -3007,54 +3034,54 @@
       <c r="D12" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="53">
         <f ca="1">SUM(G10:G12)</f>
         <v>79229.8</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="52">
         <f>SUM(H10:H11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="68">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="52">
         <v>0.08</v>
       </c>
-      <c r="B13" s="68">
+      <c r="B13" s="52">
         <v>0.05</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="53">
         <f>B7*A13</f>
         <v>126767.68000000001</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="53">
         <f>B7*B13</f>
         <v>79229.8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40"/>
       <c r="D14" s="40"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="40"/>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="40"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="58"/>
+      <c r="B16" s="64"/>
       <c r="F16" s="43" t="s">
         <v>79</v>
       </c>
@@ -3071,74 +3098,104 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>71</v>
       </c>
       <c r="B17" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="69">
+      <c r="G17" s="53">
         <f>D13*0.15</f>
         <v>11884.47</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="53">
         <f>D13*0.1</f>
         <v>7922.9800000000005</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="53">
         <f>D13*0.05</f>
         <v>3961.4900000000002</v>
       </c>
-      <c r="J17" s="69">
+      <c r="J17" s="53">
         <f>(G17*1)+(H17*1)+(I17*7)</f>
         <v>47537.880000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="70">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="54">
         <v>12</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="53">
         <f>C13*A18</f>
         <v>1521212.1600000001</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="69">
+      <c r="G18" s="53">
         <f>G17*1</f>
         <v>11884.47</v>
       </c>
-      <c r="H18" s="69">
+      <c r="H18" s="53">
         <f>H17*1</f>
         <v>7922.9800000000005</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="56">
         <f>I17*7</f>
         <v>27730.43</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="53">
         <f>SUM(G18:I18)</f>
         <v>47537.880000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="59" t="s">
+    <row r="20" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="40">
+        <f>B8</f>
+        <v>1790593.4799999997</v>
+      </c>
+      <c r="C21" s="40">
+        <f>C8</f>
+        <v>102554.03665521189</v>
+      </c>
+      <c r="F21" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="40">
+        <f>B8*1.05</f>
+        <v>1880123.1539999999</v>
+      </c>
+      <c r="C22" s="40">
+        <f>C8*1.05</f>
+        <v>107681.7384879725</v>
+      </c>
       <c r="F22" s="43" t="s">
         <v>79</v>
       </c>
@@ -3155,49 +3212,59 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="69">
+      <c r="G23" s="53">
         <f>D13*0.035</f>
         <v>2773.0430000000006</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="53">
         <f>D13*0.025</f>
         <v>1980.7450000000001</v>
       </c>
-      <c r="I23" s="72">
+      <c r="I23" s="56">
         <f>D13*0.0175</f>
         <v>1386.5215000000003</v>
       </c>
-      <c r="J23" s="69">
+      <c r="J23" s="53">
         <f>(G23*2)+(H23*2)+(I23*16)</f>
         <v>31691.920000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="71" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F24" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="69">
+      <c r="G24" s="53">
         <f>G23*2</f>
         <v>5546.0860000000011</v>
       </c>
-      <c r="H24" s="69">
+      <c r="H24" s="53">
         <f>H23*2</f>
         <v>3961.4900000000002</v>
       </c>
-      <c r="I24" s="72">
+      <c r="I24" s="56">
         <f>I23*16</f>
         <v>22184.344000000005</v>
       </c>
-      <c r="J24" s="69">
+      <c r="J24" s="53">
         <f>SUM(G24:I24)</f>
         <v>31691.920000000006</v>
       </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3211,7 +3278,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="7">
+  <tableParts count="8">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -3219,6 +3286,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3227,39 +3295,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DA5CF6-1881-4FFE-91A5-A2EC9A454F01}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:C25"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="8"/>
-      <c r="E1" s="53">
+      <c r="E1" s="73">
         <v>45061</v>
       </c>
-      <c r="F1" s="53"/>
+      <c r="F1" s="73"/>
       <c r="G1" s="8"/>
       <c r="H1" s="24" t="s">
         <v>56</v>
       </c>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="7" t="s">
         <v>40</v>
@@ -3280,7 +3348,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3305,7 +3373,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
@@ -3313,27 +3381,27 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="E6" s="51" t="s">
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="E6" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="B7" s="14" t="s">
         <v>40</v>
@@ -3341,16 +3409,16 @@
       <c r="C7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
         <v>59</v>
       </c>
@@ -3362,14 +3430,14 @@
         <f>B8/F2</f>
         <v>128192.54581901486</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
@@ -3381,14 +3449,14 @@
         <f>B9/F2</f>
         <v>320481.36454753717</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>36</v>
       </c>
@@ -3400,14 +3468,14 @@
         <f>B10/F2</f>
         <v>192288.81872852228</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-    </row>
-    <row r="11" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
@@ -3420,14 +3488,14 @@
         <v>6409.6272909507434</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>62</v>
       </c>
@@ -3439,14 +3507,14 @@
         <f>B12/F2</f>
         <v>1922.8881872852228</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>37</v>
       </c>
@@ -3459,35 +3527,35 @@
         <v>4486.7391036655199</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="76" t="s">
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="32" t="s">
         <v>40</v>
@@ -3495,14 +3563,14 @@
       <c r="C16" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>45</v>
       </c>
@@ -3514,14 +3582,14 @@
         <f>C22*0.25</f>
         <v>80120.341136884294</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-    </row>
-    <row r="18" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>46</v>
       </c>
@@ -3533,14 +3601,14 @@
         <f>C22*0.3</f>
         <v>96144.409364261155</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>47</v>
       </c>
@@ -3552,14 +3620,14 @@
         <f>C22*0.4</f>
         <v>128192.54581901488</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>48</v>
       </c>
@@ -3571,14 +3639,14 @@
         <f>C22*0.025</f>
         <v>8012.0341136884299</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-    </row>
-    <row r="21" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>49</v>
       </c>
@@ -3590,16 +3658,16 @@
         <f>C22*0.025</f>
         <v>8012.0341136884299</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>44</v>
       </c>
@@ -3611,37 +3679,37 @@
         <f>C9</f>
         <v>320481.36454753717</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82" t="s">
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78" t="s">
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="58" t="s">
         <v>99</v>
       </c>
       <c r="B25" s="31" t="s">
@@ -3657,15 +3725,15 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79">
+    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="59">
         <v>0.25</v>
       </c>
-      <c r="B26" s="81">
+      <c r="B26" s="61">
         <f>B3*A26</f>
         <v>447648.36999999994</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="61">
         <f>C3*A26</f>
         <v>25638.509163802973</v>
       </c>
@@ -3676,74 +3744,74 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="79">
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="59">
         <v>0.3</v>
       </c>
-      <c r="B27" s="81">
+      <c r="B27" s="61">
         <f>B3*A27</f>
         <v>537178.04399999988</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="61">
         <f>C3*A27</f>
         <v>30766.210996563568</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="79">
+    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="59">
         <v>0.4</v>
       </c>
-      <c r="B28" s="81">
+      <c r="B28" s="61">
         <f>B3*A28</f>
         <v>716237.39199999999</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="61">
         <f>C3*A28</f>
         <v>41021.614662084758</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="80">
+    <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="60">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B29" s="81">
+      <c r="B29" s="61">
         <f>B3*A29</f>
         <v>44764.837</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="61">
         <f>C3*A29</f>
         <v>2563.8509163802973</v>
       </c>
       <c r="G29" s="33"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="80">
+    <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="60">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="B30" s="81">
+      <c r="B30" s="61">
         <f>B3*A30</f>
         <v>44764.837</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="61">
         <f>C3*A30</f>
         <v>2563.8509163802973</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79">
+    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="59">
         <v>1</v>
       </c>
-      <c r="B31" s="81">
+      <c r="B31" s="61">
         <f>SUM(B26:B30)</f>
         <v>1790593.48</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="61">
         <f>SUM(C26:C30)</f>
         <v>102554.03665521189</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="E21:J24"/>
